--- a/doc/控制器.xlsx
+++ b/doc/控制器.xlsx
@@ -4,23 +4,66 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="预定义" sheetId="2" r:id="rId1"/>
-    <sheet name="控制信号" sheetId="1" r:id="rId2"/>
+    <sheet name="寄存器定义" sheetId="2" r:id="rId1"/>
+    <sheet name="Controller" sheetId="1" r:id="rId2"/>
+    <sheet name="BranchController" sheetId="3" r:id="rId3"/>
+    <sheet name="ALUOp" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="171026" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="98">
+  <si>
+    <t>寄存器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用寄存器</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0000-0111</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>IH</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>AR</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
   <si>
     <t>序号</t>
   </si>
@@ -28,55 +71,124 @@
     <t>指令</t>
   </si>
   <si>
+    <t>控制信号</t>
+  </si>
+  <si>
+    <t>TRegType</t>
+  </si>
+  <si>
+    <t>RegWrEn</t>
+  </si>
+  <si>
+    <t>MemWr</t>
+  </si>
+  <si>
+    <t>MemRd</t>
+  </si>
+  <si>
+    <t>WBSrc</t>
+  </si>
+  <si>
+    <t>JumpType(2:0)</t>
+  </si>
+  <si>
+    <t>ALUOp(3:0)</t>
+  </si>
+  <si>
+    <t>RegSrcA(3:0)</t>
+  </si>
+  <si>
+    <t>RegSrcB(3:0)</t>
+  </si>
+  <si>
+    <t>RegDst(3:0)</t>
+  </si>
+  <si>
+    <t>ExRes(2:0)</t>
+  </si>
+  <si>
+    <t>ALUSrc(0 regB 1 imm)</t>
+  </si>
+  <si>
     <t>算数</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">ADDIU </t>
   </si>
   <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>rx</t>
+  </si>
+  <si>
     <t>ADDIU3</t>
   </si>
   <si>
+    <t>ry</t>
+  </si>
+  <si>
     <t>ADDSP</t>
   </si>
   <si>
+    <t>SP</t>
+  </si>
+  <si>
     <t>ADDU</t>
   </si>
   <si>
+    <t>rz</t>
+  </si>
+  <si>
     <t>SUBU</t>
   </si>
   <si>
+    <t>-</t>
+  </si>
+  <si>
     <t>NEG</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>逻辑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>AND</t>
   </si>
   <si>
+    <t>&amp;</t>
+  </si>
+  <si>
     <t>OR</t>
   </si>
   <si>
+    <t>|</t>
+  </si>
+  <si>
     <t>移位</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>SLL</t>
   </si>
   <si>
+    <t>&lt;&lt;</t>
+  </si>
+  <si>
     <t>SRA</t>
   </si>
   <si>
+    <t>&gt;&gt;&gt;</t>
+  </si>
+  <si>
     <t>SRL</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;&gt;</t>
   </si>
   <si>
     <t>分支跳转</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>B</t>
@@ -85,41 +197,51 @@
     <t>BEQZ</t>
   </si>
   <si>
+    <t>rx(BranchController控制）</t>
+  </si>
+  <si>
     <t>BNEZ</t>
   </si>
   <si>
     <t>BTEQZ</t>
   </si>
   <si>
+    <t>T(BranchController控制）</t>
+  </si>
+  <si>
     <t>JR</t>
   </si>
   <si>
     <t>JALR</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>RA</t>
   </si>
   <si>
     <t>JRRA</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>比较</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>CMP</t>
   </si>
   <si>
+    <t>T</t>
+  </si>
+  <si>
     <t>SLT</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>特殊寄存器取/赋值</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>MFIH</t>
   </si>
   <si>
+    <t>IH</t>
+  </si>
+  <si>
     <t>MFPC</t>
   </si>
   <si>
@@ -130,7 +252,6 @@
   </si>
   <si>
     <t>访存</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>LI</t>
@@ -145,33 +266,19 @@
     <t>SW</t>
   </si>
   <si>
+    <t>SW_RS</t>
+  </si>
+  <si>
     <t>SW_SP</t>
   </si>
   <si>
     <t>空</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>NOP</t>
   </si>
   <si>
-    <t>TRegType</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>RegWrEn</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemWr</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>MemRd</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>WBSrc</t>
+    <t>指令</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -179,71 +286,58 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>MemSrc</t>
+    <t>Option Symble</t>
+  </si>
+  <si>
+    <t>RegData(15:0)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ALUOp(3:0)</t>
+    <t>0000</t>
+  </si>
+  <si>
+    <t>0001</t>
+  </si>
+  <si>
+    <t>0010</t>
+  </si>
+  <si>
+    <t>0011</t>
+  </si>
+  <si>
+    <t>0100</t>
+  </si>
+  <si>
+    <t>!0</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RegSrcA(3:0)</t>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0110</t>
+  </si>
+  <si>
+    <t>0111</t>
+  </si>
+  <si>
+    <t>PCSelect</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RegSrcB(3:0)</t>
+    <t>PCSelect注：</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>RegDst(3:0)</t>
+    <t>FromReg</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>EsReg(1:0)</t>
+    <t>NPC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>ALUSrc</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>类型</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制信号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>寄存器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用寄存器</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>T</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>IH</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>SP</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>AR</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0000-0111</t>
+    <t>PCOffset</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -251,7 +345,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -282,12 +376,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -335,7 +423,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -360,7 +448,7 @@
       </left>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -369,7 +457,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -390,7 +478,7 @@
       <right/>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -411,20 +499,20 @@
       <left/>
       <right/>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -432,7 +520,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom/>
@@ -441,11 +529,11 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -456,63 +544,121 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 6" xfId="1" xr:uid="{9D82570E-BF46-4E17-A6C9-48185543F5D4}"/>
+    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -525,6 +671,111 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1441450</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="直接连接符 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCE7D1A-8146-4B2C-8BF5-1F1E1E5E6C9F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="0" y="368300"/>
+          <a:ext cx="2616200" cy="501650"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1168400</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直接连接符 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2262EF2A-6BE7-4BAE-B7BB-F24298545F56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1168400" y="0"/>
+          <a:ext cx="1466850" cy="863600"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -789,64 +1040,64 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0A44D04-8CF3-479A-9381-6960B913991B}">
-  <dimension ref="A2:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.58203125" customWidth="1"/>
-    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="1" max="1" width="11.4140625" customWidth="1"/>
+    <col min="2" max="2" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="31" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="B2" s="17" t="s">
-        <v>56</v>
+      <c r="A2" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="19" t="s">
-        <v>62</v>
+      <c r="A3" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="12">
+        <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="19">
-        <v>1000</v>
+      <c r="A4" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1001</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="B5" s="19">
-        <v>1001</v>
+      <c r="A5" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="12">
+        <v>1010</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="B6" s="19">
-        <v>1010</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="20" t="s">
-        <v>61</v>
-      </c>
-      <c r="B7" s="21">
+      <c r="A6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="14">
         <v>1011</v>
       </c>
     </row>
@@ -857,383 +1108,1511 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:P33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A2:P34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="4" max="4" width="10.25" customWidth="1"/>
-    <col min="9" max="9" width="15.1640625" customWidth="1"/>
-    <col min="11" max="11" width="13.75" customWidth="1"/>
-    <col min="12" max="12" width="16" customWidth="1"/>
-    <col min="13" max="13" width="13.58203125" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" customWidth="1"/>
-    <col min="15" max="15" width="12.5" customWidth="1"/>
+    <col min="4" max="4" width="10.1640625" style="16" customWidth="1"/>
+    <col min="5" max="8" width="8.83203125" style="16"/>
+    <col min="9" max="9" width="15.1640625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="8.83203125" style="16"/>
+    <col min="11" max="11" width="21.1640625" style="16" customWidth="1"/>
+    <col min="12" max="12" width="16" style="16" customWidth="1"/>
+    <col min="13" max="13" width="13.4140625" style="16" customWidth="1"/>
+    <col min="14" max="14" width="13.83203125" style="16" customWidth="1"/>
+    <col min="15" max="15" width="12.4140625" style="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="37" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
+    </row>
+    <row r="3" spans="1:16" ht="28">
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="9"/>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="16">
+        <v>1</v>
+      </c>
+      <c r="F4" s="16">
+        <v>0</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0</v>
+      </c>
+      <c r="H4" s="16">
+        <v>1</v>
+      </c>
+      <c r="I4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="16">
+        <v>3</v>
+      </c>
+      <c r="O4" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="34"/>
+      <c r="B5" s="3">
+        <v>2</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="16">
+        <v>1</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0</v>
+      </c>
+      <c r="H5" s="16">
+        <v>1</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="16">
+        <v>3</v>
+      </c>
+      <c r="O5" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="34"/>
+      <c r="B6" s="3">
+        <v>3</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="16">
+        <v>1</v>
+      </c>
+      <c r="F6" s="16">
+        <v>0</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0</v>
+      </c>
+      <c r="H6" s="16">
+        <v>1</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="16">
+        <v>3</v>
+      </c>
+      <c r="O6" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="34"/>
+      <c r="B7" s="3">
+        <v>4</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="16">
+        <v>1</v>
+      </c>
+      <c r="F7" s="16">
+        <v>0</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0</v>
+      </c>
+      <c r="H7" s="16">
+        <v>1</v>
+      </c>
+      <c r="I7" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M7" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N7" s="16">
+        <v>3</v>
+      </c>
+      <c r="O7" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="34"/>
+      <c r="B8" s="3">
+        <v>23</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="16">
+        <v>1</v>
+      </c>
+      <c r="F8" s="16">
+        <v>0</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="16">
+        <v>1</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="N8" s="16">
+        <v>3</v>
+      </c>
+      <c r="O8" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="34"/>
+      <c r="B9" s="5">
+        <v>29</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="16">
+        <v>1</v>
+      </c>
+      <c r="F9" s="16">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>0</v>
+      </c>
+      <c r="H9" s="16">
+        <v>1</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K9" s="16">
+        <v>0</v>
+      </c>
+      <c r="L9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9" s="16">
+        <v>3</v>
+      </c>
+      <c r="O9" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="33" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="3">
+        <v>5</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="16">
+        <v>1</v>
+      </c>
+      <c r="F10" s="16">
+        <v>0</v>
+      </c>
+      <c r="G10" s="16">
+        <v>0</v>
+      </c>
+      <c r="H10" s="16">
+        <v>1</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M10" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N10" s="16">
+        <v>3</v>
+      </c>
+      <c r="O10" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="34"/>
+      <c r="B11" s="5">
+        <v>20</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="16">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16">
+        <v>0</v>
+      </c>
+      <c r="G11" s="16">
+        <v>0</v>
+      </c>
+      <c r="H11" s="16">
+        <v>1</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="K11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M11" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N11" s="16">
+        <v>3</v>
+      </c>
+      <c r="O11" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="33" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="3">
+        <v>21</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>0</v>
+      </c>
+      <c r="H12" s="16">
+        <v>1</v>
+      </c>
+      <c r="I12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M12" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12" s="16">
+        <v>3</v>
+      </c>
+      <c r="O12" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="34"/>
+      <c r="B13" s="3">
+        <v>22</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="16">
+        <v>0</v>
+      </c>
+      <c r="H13" s="16">
+        <v>1</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="K13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M13" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N13" s="16">
+        <v>3</v>
+      </c>
+      <c r="O13" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="34"/>
+      <c r="B14" s="5">
+        <v>30</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="16">
+        <v>1</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>1</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="L14" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M14" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N14" s="16">
+        <v>3</v>
+      </c>
+      <c r="O14" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="3">
+        <v>6</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="34"/>
+      <c r="B16" s="3">
+        <v>7</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0</v>
+      </c>
+      <c r="F16" s="16">
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="16">
+        <v>1</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K16" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="13" t="s">
+      <c r="L16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="34"/>
+      <c r="B17" s="3">
+        <v>8</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13"/>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-    </row>
-    <row r="3" spans="1:16" ht="28">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I3" s="15" t="s">
+      <c r="D17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="16">
+        <v>0</v>
+      </c>
+      <c r="F17" s="16">
+        <v>0</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="16">
+        <v>2</v>
+      </c>
+      <c r="J17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K17" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="34"/>
+      <c r="B18" s="3">
+        <v>9</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="16">
+        <v>0</v>
+      </c>
+      <c r="F18" s="16">
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="16">
+        <v>3</v>
+      </c>
+      <c r="J18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K18" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="L18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="34"/>
+      <c r="B19" s="3">
+        <v>11</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0</v>
+      </c>
+      <c r="F19" s="16">
+        <v>0</v>
+      </c>
+      <c r="G19" s="16">
+        <v>0</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="16">
+        <v>4</v>
+      </c>
+      <c r="J19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K19" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="34"/>
+      <c r="B20" s="3">
+        <v>26</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1</v>
+      </c>
+      <c r="F20" s="16">
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>0</v>
+      </c>
+      <c r="H20" s="16">
+        <v>1</v>
+      </c>
+      <c r="I20" s="16">
+        <v>5</v>
+      </c>
+      <c r="J20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K20" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="L20" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M20" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="N20" s="16">
+        <v>2</v>
+      </c>
+      <c r="O20" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="34"/>
+      <c r="B21" s="5">
+        <v>27</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="16">
+        <v>0</v>
+      </c>
+      <c r="F21" s="16">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>0</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="16">
+        <v>6</v>
+      </c>
+      <c r="J21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K21" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="L21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="3">
+        <v>10</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" s="16">
+        <v>0</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1</v>
+      </c>
+      <c r="F22" s="16">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <v>0</v>
+      </c>
+      <c r="H22" s="16">
+        <v>1</v>
+      </c>
+      <c r="I22" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K22" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L22" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N22" s="16">
+        <v>0</v>
+      </c>
+      <c r="O22" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="34"/>
+      <c r="B23" s="5">
+        <v>28</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="16">
+        <v>1</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1</v>
+      </c>
+      <c r="F23" s="16">
+        <v>0</v>
+      </c>
+      <c r="G23" s="16">
+        <v>0</v>
+      </c>
+      <c r="H23" s="16">
+        <v>1</v>
+      </c>
+      <c r="I23" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="K23" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L23" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="N23" s="16">
+        <v>0</v>
+      </c>
+      <c r="O23" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B24" s="3">
+        <v>15</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1</v>
+      </c>
+      <c r="F24" s="16">
+        <v>0</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0</v>
+      </c>
+      <c r="H24" s="16">
+        <v>1</v>
+      </c>
+      <c r="I24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K24" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N24" s="16">
+        <v>4</v>
+      </c>
+      <c r="O24" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="34"/>
+      <c r="B25" s="3">
+        <v>16</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0</v>
+      </c>
+      <c r="H25" s="16">
+        <v>1</v>
+      </c>
+      <c r="I25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N25" s="16">
+        <v>1</v>
+      </c>
+      <c r="O25" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="34"/>
+      <c r="B26" s="3">
+        <v>17</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="16">
+        <v>1</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <v>1</v>
+      </c>
+      <c r="I26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K26" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L26" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="N26" s="16">
+        <v>4</v>
+      </c>
+      <c r="O26" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="34"/>
+      <c r="B27" s="5">
+        <v>18</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="16">
+        <v>1</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <v>1</v>
+      </c>
+      <c r="I27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K27" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L27" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M27" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="N27" s="16">
+        <v>4</v>
+      </c>
+      <c r="O27" s="16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="3">
+        <v>12</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1</v>
+      </c>
+      <c r="F28" s="16">
+        <v>0</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0</v>
+      </c>
+      <c r="H28" s="16">
+        <v>1</v>
+      </c>
+      <c r="I28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28" s="16">
+        <v>5</v>
+      </c>
+      <c r="O28" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="34"/>
+      <c r="B29" s="3">
+        <v>13</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="16">
+        <v>1</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="16">
+        <v>1</v>
+      </c>
+      <c r="H29" s="16">
+        <v>0</v>
+      </c>
+      <c r="I29" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K29" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L29" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M29" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" s="16">
+        <v>3</v>
+      </c>
+      <c r="O29" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="34"/>
+      <c r="B30" s="3">
+        <v>14</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="16">
+        <v>1</v>
+      </c>
+      <c r="F30" s="16">
+        <v>0</v>
+      </c>
+      <c r="G30" s="16">
+        <v>1</v>
+      </c>
+      <c r="H30" s="16">
+        <v>0</v>
+      </c>
+      <c r="I30" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K30" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L30" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M30" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30" s="16">
+        <v>3</v>
+      </c>
+      <c r="O30" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="34"/>
+      <c r="B31" s="3">
+        <v>24</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="16">
+        <v>0</v>
+      </c>
+      <c r="F31" s="16">
+        <v>1</v>
+      </c>
+      <c r="G31" s="16">
+        <v>0</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K31" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="L31" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="M31" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N31" s="16">
+        <v>3</v>
+      </c>
+      <c r="O31" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="34"/>
+      <c r="B32" s="3">
+        <v>31</v>
+      </c>
+      <c r="C32" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="16">
+        <v>0</v>
+      </c>
+      <c r="F32" s="16">
+        <v>1</v>
+      </c>
+      <c r="G32" s="16">
+        <v>0</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K32" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L32" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="M32" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N32" s="16">
+        <v>3</v>
+      </c>
+      <c r="O32" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="34"/>
+      <c r="B33" s="5">
+        <v>25</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="16">
+        <v>0</v>
+      </c>
+      <c r="F33" s="16">
+        <v>1</v>
+      </c>
+      <c r="G33" s="16">
+        <v>0</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="K33" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="L33" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="M33" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33" s="16">
+        <v>3</v>
+      </c>
+      <c r="O33" s="16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B34" s="7">
+        <v>19</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="16">
+        <v>1</v>
+      </c>
+      <c r="F34" s="16">
+        <v>0</v>
+      </c>
+      <c r="G34" s="16">
+        <v>0</v>
+      </c>
+      <c r="H34" s="16">
+        <v>1</v>
+      </c>
+      <c r="I34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="J3" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="K3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="L3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="P3" s="15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="K34" s="16">
+        <v>0</v>
+      </c>
+      <c r="L34" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M34" s="16">
+        <v>0</v>
+      </c>
+      <c r="N34" s="16">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5">
-        <v>4</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5">
-        <v>23</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="4"/>
-      <c r="B9" s="7">
-        <v>29</v>
-      </c>
-      <c r="C9" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="5">
-        <v>5</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="4"/>
-      <c r="B11" s="7">
-        <v>20</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="5">
-        <v>21</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5">
-        <v>22</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="4"/>
-      <c r="B14" s="7">
-        <v>30</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="5">
-        <v>6</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5">
-        <v>7</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5">
-        <v>8</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5">
-        <v>9</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5">
-        <v>11</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="4"/>
-      <c r="B20" s="5">
-        <v>26</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="4"/>
-      <c r="B21" s="7">
-        <v>27</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B22" s="5">
-        <v>10</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="7">
-        <v>28</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="5">
-        <v>15</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5">
-        <v>16</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5">
-        <v>17</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="7">
-        <v>18</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="5">
-        <v>12</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5">
-        <v>13</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5">
-        <v>14</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5">
-        <v>24</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="7">
-        <v>25</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B33" s="10">
-        <v>19</v>
-      </c>
-      <c r="C33" s="11" t="s">
-        <v>39</v>
+      <c r="O34" s="16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A28:A33"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
@@ -1247,5 +2626,294 @@
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C045E36-7B6A-4984-B732-FE0758B948D8}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="15.4140625" customWidth="1"/>
+    <col min="2" max="2" width="19.08203125" customWidth="1"/>
+    <col min="3" max="3" width="13.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="29" customHeight="1">
+      <c r="A1" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="38">
+        <v>0</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+    </row>
+    <row r="2" spans="1:13" ht="39.5" customHeight="1">
+      <c r="A2" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="C2" s="39"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="20"/>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" s="42" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="22">
+        <v>0</v>
+      </c>
+      <c r="C3" s="43">
+        <v>2</v>
+      </c>
+      <c r="D3" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B4" s="23">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28">
+        <v>2</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B5" s="23">
+        <v>2</v>
+      </c>
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="23">
+        <v>3</v>
+      </c>
+      <c r="C6" s="28">
+        <v>2</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="23">
+        <v>4</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0</v>
+      </c>
+      <c r="D7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" s="29" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8" s="23">
+        <v>5</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B9" s="24">
+        <v>6</v>
+      </c>
+      <c r="C9" s="31">
+        <v>0</v>
+      </c>
+      <c r="D9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="22">
+        <v>0</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="11"/>
+      <c r="B12" s="23">
+        <v>1</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" s="13"/>
+      <c r="B13" s="24">
+        <v>2</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9134E1-7BBF-4C70-B2CC-9F10822CA5EC}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14"/>
+  <cols>
+    <col min="1" max="1" width="13.25" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.4140625" style="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/控制器.xlsx
+++ b/doc/控制器.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="寄存器定义" sheetId="2" r:id="rId1"/>
@@ -624,6 +624,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -651,10 +655,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1111,11 +1111,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:P34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K21" sqref="K21"/>
+      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1123,7 +1123,7 @@
     <col min="4" max="4" width="10.1640625" style="16" customWidth="1"/>
     <col min="5" max="8" width="8.83203125" style="16"/>
     <col min="9" max="9" width="15.1640625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="8.83203125" style="16"/>
+    <col min="10" max="10" width="11.5" style="16" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" style="16" customWidth="1"/>
     <col min="12" max="12" width="16" style="16" customWidth="1"/>
     <col min="13" max="13" width="13.4140625" style="16" customWidth="1"/>
@@ -1132,35 +1132,35 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="A2" s="37" t="s">
+      <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="35" t="s">
+      <c r="D2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="K2" s="35"/>
-      <c r="L2" s="35"/>
-      <c r="M2" s="35"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="35"/>
-      <c r="P2" s="35"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
     </row>
     <row r="3" spans="1:16" ht="28">
-      <c r="A3" s="36"/>
-      <c r="B3" s="36"/>
-      <c r="C3" s="36"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="17" t="s">
         <v>12</v>
       </c>
@@ -1200,7 +1200,7 @@
       <c r="P3" s="9"/>
     </row>
     <row r="4" spans="1:16">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="35" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1">
@@ -1247,7 +1247,7 @@
       </c>
     </row>
     <row r="5" spans="1:16">
-      <c r="A5" s="34"/>
+      <c r="A5" s="36"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1292,7 +1292,7 @@
       </c>
     </row>
     <row r="6" spans="1:16">
-      <c r="A6" s="34"/>
+      <c r="A6" s="36"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1337,7 +1337,7 @@
       </c>
     </row>
     <row r="7" spans="1:16">
-      <c r="A7" s="34"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1382,7 +1382,7 @@
       </c>
     </row>
     <row r="8" spans="1:16">
-      <c r="A8" s="34"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="3">
         <v>23</v>
       </c>
@@ -1427,7 +1427,7 @@
       </c>
     </row>
     <row r="9" spans="1:16">
-      <c r="A9" s="34"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="5">
         <v>29</v>
       </c>
@@ -1472,7 +1472,7 @@
       </c>
     </row>
     <row r="10" spans="1:16">
-      <c r="A10" s="33" t="s">
+      <c r="A10" s="35" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="3">
@@ -1519,7 +1519,7 @@
       </c>
     </row>
     <row r="11" spans="1:16">
-      <c r="A11" s="34"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="5">
         <v>20</v>
       </c>
@@ -1564,7 +1564,7 @@
       </c>
     </row>
     <row r="12" spans="1:16">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="35" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3">
@@ -1611,7 +1611,7 @@
       </c>
     </row>
     <row r="13" spans="1:16">
-      <c r="A13" s="34"/>
+      <c r="A13" s="36"/>
       <c r="B13" s="3">
         <v>22</v>
       </c>
@@ -1656,7 +1656,7 @@
       </c>
     </row>
     <row r="14" spans="1:16">
-      <c r="A14" s="34"/>
+      <c r="A14" s="36"/>
       <c r="B14" s="5">
         <v>30</v>
       </c>
@@ -1701,7 +1701,7 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="A15" s="33" t="s">
+      <c r="A15" s="35" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="3">
@@ -1748,7 +1748,7 @@
       </c>
     </row>
     <row r="16" spans="1:16">
-      <c r="A16" s="34"/>
+      <c r="A16" s="36"/>
       <c r="B16" s="3">
         <v>7</v>
       </c>
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="34"/>
+      <c r="A17" s="36"/>
       <c r="B17" s="3">
         <v>8</v>
       </c>
@@ -1838,7 +1838,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="34"/>
+      <c r="A18" s="36"/>
       <c r="B18" s="3">
         <v>9</v>
       </c>
@@ -1883,7 +1883,7 @@
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="34"/>
+      <c r="A19" s="36"/>
       <c r="B19" s="3">
         <v>11</v>
       </c>
@@ -1928,7 +1928,7 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="34"/>
+      <c r="A20" s="36"/>
       <c r="B20" s="3">
         <v>26</v>
       </c>
@@ -1973,7 +1973,7 @@
       </c>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="34"/>
+      <c r="A21" s="36"/>
       <c r="B21" s="5">
         <v>27</v>
       </c>
@@ -2018,7 +2018,7 @@
       </c>
     </row>
     <row r="22" spans="1:15">
-      <c r="A22" s="33" t="s">
+      <c r="A22" s="35" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="3">
@@ -2065,7 +2065,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="34"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="5">
         <v>28</v>
       </c>
@@ -2110,7 +2110,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="33" t="s">
+      <c r="A24" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="3">
@@ -2157,7 +2157,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="34"/>
+      <c r="A25" s="36"/>
       <c r="B25" s="3">
         <v>16</v>
       </c>
@@ -2202,7 +2202,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="34"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="3">
         <v>17</v>
       </c>
@@ -2247,7 +2247,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="34"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="5">
         <v>18</v>
       </c>
@@ -2292,7 +2292,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="33" t="s">
+      <c r="A28" s="35" t="s">
         <v>71</v>
       </c>
       <c r="B28" s="3">
@@ -2339,7 +2339,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="34"/>
+      <c r="A29" s="36"/>
       <c r="B29" s="3">
         <v>13</v>
       </c>
@@ -2384,7 +2384,7 @@
       </c>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="34"/>
+      <c r="A30" s="36"/>
       <c r="B30" s="3">
         <v>14</v>
       </c>
@@ -2429,7 +2429,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="34"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -2474,7 +2474,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="34"/>
+      <c r="A32" s="36"/>
       <c r="B32" s="3">
         <v>31</v>
       </c>
@@ -2519,7 +2519,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="34"/>
+      <c r="A33" s="36"/>
       <c r="B33" s="5">
         <v>25</v>
       </c>
@@ -2634,9 +2634,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C045E36-7B6A-4984-B732-FE0758B948D8}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14"/>
   <cols>
@@ -2652,10 +2650,10 @@
       <c r="B1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="38">
-        <v>0</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="40">
+        <v>0</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>89</v>
       </c>
       <c r="E1" s="20"/>
@@ -2675,8 +2673,8 @@
       <c r="B2" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="43"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -2688,13 +2686,13 @@
       <c r="M2" s="20"/>
     </row>
     <row r="3" spans="1:13">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="33" t="s">
         <v>51</v>
       </c>
       <c r="B3" s="22">
         <v>0</v>
       </c>
-      <c r="C3" s="43">
+      <c r="C3" s="34">
         <v>2</v>
       </c>
       <c r="D3" s="10">

--- a/doc/控制器.xlsx
+++ b/doc/控制器.xlsx
@@ -1,34 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangwx/Programs/ComputerOrganization/SAOestCPU/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="12800" windowHeight="15440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="8220" windowWidth="25600" windowHeight="7780" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="寄存器定义" sheetId="2" r:id="rId1"/>
     <sheet name="Controller" sheetId="1" r:id="rId2"/>
     <sheet name="BranchController" sheetId="3" r:id="rId3"/>
     <sheet name="ALUOp" sheetId="4" r:id="rId4"/>
+    <sheet name="ALUFlag" sheetId="6" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="171026" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="105">
   <si>
     <t>寄存器</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -339,17 +345,38 @@
   <si>
     <t>PCOffset</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ALUFlag</t>
+  </si>
+  <si>
+    <t>Flag Symbol</t>
+  </si>
+  <si>
+    <t>Z (Zero Flag)</t>
+  </si>
+  <si>
+    <t>C (Carry Flag)</t>
+  </si>
+  <si>
+    <t>S (Sign Flag)</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>O (Overflow Flag)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -368,7 +395,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -400,6 +427,13 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -544,7 +578,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -628,6 +662,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -657,8 +697,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 6" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -693,7 +733,7 @@
         <xdr:cNvPr id="3" name="直接连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCE7D1A-8146-4B2C-8BF5-1F1E1E5E6C9F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCE7D1A-8146-4B2C-8BF5-1F1E1E5E6C9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -743,7 +783,7 @@
         <xdr:cNvPr id="5" name="直接连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2262EF2A-6BE7-4BAE-B7BB-F24298545F56}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2262EF2A-6BE7-4BAE-B7BB-F24298545F56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1040,20 +1080,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.4140625" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>0</v>
       </c>
@@ -1061,7 +1101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="11" t="s">
         <v>2</v>
       </c>
@@ -1069,7 +1109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>4</v>
       </c>
@@ -1077,7 +1117,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>5</v>
       </c>
@@ -1085,7 +1125,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>6</v>
       </c>
@@ -1093,7 +1133,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>7</v>
       </c>
@@ -1108,17 +1148,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="10.1640625" style="16" customWidth="1"/>
     <col min="5" max="8" width="8.83203125" style="16"/>
@@ -1126,41 +1166,41 @@
     <col min="10" max="10" width="11.5" style="16" customWidth="1"/>
     <col min="11" max="11" width="21.1640625" style="16" customWidth="1"/>
     <col min="12" max="12" width="16" style="16" customWidth="1"/>
-    <col min="13" max="13" width="13.4140625" style="16" customWidth="1"/>
+    <col min="13" max="13" width="13.33203125" style="16" customWidth="1"/>
     <col min="14" max="14" width="13.83203125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="12.4140625" style="16" customWidth="1"/>
+    <col min="15" max="15" width="12.33203125" style="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-    </row>
-    <row r="3" spans="1:16" ht="28">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+      <c r="H2" s="39"/>
+      <c r="I2" s="39"/>
+      <c r="J2" s="39"/>
+      <c r="K2" s="39"/>
+      <c r="L2" s="39"/>
+      <c r="M2" s="39"/>
+      <c r="N2" s="39"/>
+      <c r="O2" s="39"/>
+      <c r="P2" s="39"/>
+    </row>
+    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.2">
+      <c r="A3" s="40"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
       <c r="D3" s="17" t="s">
         <v>12</v>
       </c>
@@ -1199,8 +1239,8 @@
       </c>
       <c r="P3" s="9"/>
     </row>
-    <row r="4" spans="1:16">
-      <c r="A4" s="35" t="s">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="1">
@@ -1246,8 +1286,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
-      <c r="A5" s="36"/>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="38"/>
       <c r="B5" s="3">
         <v>2</v>
       </c>
@@ -1291,8 +1331,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
-      <c r="A6" s="36"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="38"/>
       <c r="B6" s="3">
         <v>3</v>
       </c>
@@ -1336,8 +1376,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
-      <c r="A7" s="36"/>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="38"/>
       <c r="B7" s="3">
         <v>4</v>
       </c>
@@ -1381,8 +1421,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
-      <c r="A8" s="36"/>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A8" s="38"/>
       <c r="B8" s="3">
         <v>23</v>
       </c>
@@ -1426,8 +1466,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:16">
-      <c r="A9" s="36"/>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A9" s="38"/>
       <c r="B9" s="5">
         <v>29</v>
       </c>
@@ -1471,8 +1511,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:16">
-      <c r="A10" s="35" t="s">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="37" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="3">
@@ -1518,8 +1558,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:16">
-      <c r="A11" s="36"/>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A11" s="38"/>
       <c r="B11" s="5">
         <v>20</v>
       </c>
@@ -1563,8 +1603,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:16">
-      <c r="A12" s="35" t="s">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="37" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="3">
@@ -1610,8 +1650,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16">
-      <c r="A13" s="36"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="38"/>
       <c r="B13" s="3">
         <v>22</v>
       </c>
@@ -1655,8 +1695,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16">
-      <c r="A14" s="36"/>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="38"/>
       <c r="B14" s="5">
         <v>30</v>
       </c>
@@ -1700,8 +1740,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16">
-      <c r="A15" s="35" t="s">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A15" s="37" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="3">
@@ -1747,8 +1787,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:16">
-      <c r="A16" s="36"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
       <c r="B16" s="3">
         <v>7</v>
       </c>
@@ -1792,8 +1832,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
-      <c r="A17" s="36"/>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" s="38"/>
       <c r="B17" s="3">
         <v>8</v>
       </c>
@@ -1837,8 +1877,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
-      <c r="A18" s="36"/>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" s="38"/>
       <c r="B18" s="3">
         <v>9</v>
       </c>
@@ -1882,8 +1922,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
-      <c r="A19" s="36"/>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" s="38"/>
       <c r="B19" s="3">
         <v>11</v>
       </c>
@@ -1927,8 +1967,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
-      <c r="A20" s="36"/>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" s="38"/>
       <c r="B20" s="3">
         <v>26</v>
       </c>
@@ -1972,8 +2012,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
-      <c r="A21" s="36"/>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" s="38"/>
       <c r="B21" s="5">
         <v>27</v>
       </c>
@@ -2017,8 +2057,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
-      <c r="A22" s="35" t="s">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" s="37" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="3">
@@ -2064,8 +2104,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="36"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" s="38"/>
       <c r="B23" s="5">
         <v>28</v>
       </c>
@@ -2109,8 +2149,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="35" t="s">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" s="37" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="3">
@@ -2156,8 +2196,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="36"/>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" s="38"/>
       <c r="B25" s="3">
         <v>16</v>
       </c>
@@ -2201,8 +2241,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="36"/>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A26" s="38"/>
       <c r="B26" s="3">
         <v>17</v>
       </c>
@@ -2246,8 +2286,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="36"/>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" s="38"/>
       <c r="B27" s="5">
         <v>18</v>
       </c>
@@ -2291,8 +2331,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="35" t="s">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" s="37" t="s">
         <v>71</v>
       </c>
       <c r="B28" s="3">
@@ -2338,8 +2378,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
-      <c r="A29" s="36"/>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" s="38"/>
       <c r="B29" s="3">
         <v>13</v>
       </c>
@@ -2383,8 +2423,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
-      <c r="A30" s="36"/>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" s="38"/>
       <c r="B30" s="3">
         <v>14</v>
       </c>
@@ -2428,8 +2468,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
-      <c r="A31" s="36"/>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" s="38"/>
       <c r="B31" s="3">
         <v>24</v>
       </c>
@@ -2473,8 +2513,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
-      <c r="A32" s="36"/>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" s="38"/>
       <c r="B32" s="3">
         <v>31</v>
       </c>
@@ -2518,8 +2558,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
-      <c r="A33" s="36"/>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A33" s="38"/>
       <c r="B33" s="5">
         <v>25</v>
       </c>
@@ -2563,7 +2603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
         <v>78</v>
       </c>
@@ -2631,29 +2671,29 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C045E36-7B6A-4984-B732-FE0758B948D8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.4140625" customWidth="1"/>
-    <col min="2" max="2" width="19.08203125" customWidth="1"/>
+    <col min="1" max="1" width="15.33203125" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" customHeight="1">
+    <row r="1" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
         <v>93</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="40">
-        <v>0</v>
-      </c>
-      <c r="D1" s="42" t="s">
+      <c r="C1" s="42">
+        <v>0</v>
+      </c>
+      <c r="D1" s="44" t="s">
         <v>89</v>
       </c>
       <c r="E1" s="20"/>
@@ -2666,15 +2706,15 @@
       <c r="L1" s="20"/>
       <c r="M1" s="20"/>
     </row>
-    <row r="2" spans="1:13" ht="39.5" customHeight="1">
+    <row r="2" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="45"/>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
       <c r="G2" s="20"/>
@@ -2685,7 +2725,7 @@
       <c r="L2" s="20"/>
       <c r="M2" s="20"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="33" t="s">
         <v>51</v>
       </c>
@@ -2699,7 +2739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>52</v>
       </c>
@@ -2713,7 +2753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>54</v>
       </c>
@@ -2727,7 +2767,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>55</v>
       </c>
@@ -2741,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>57</v>
       </c>
@@ -2755,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>58</v>
       </c>
@@ -2769,7 +2809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
         <v>60</v>
       </c>
@@ -2783,7 +2823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="21" t="s">
         <v>94</v>
       </c>
@@ -2794,7 +2834,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="11"/>
       <c r="B12" s="23">
         <v>1</v>
@@ -2803,7 +2843,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="13"/>
       <c r="B13" s="24">
         <v>2</v>
@@ -2824,20 +2864,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A9134E1-7BBF-4C70-B2CC-9F10822CA5EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.25" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.4140625" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="18" t="s">
         <v>82</v>
       </c>
@@ -2845,7 +2885,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>26</v>
       </c>
@@ -2853,7 +2893,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="18" t="s">
         <v>27</v>
       </c>
@@ -2861,7 +2901,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>36</v>
       </c>
@@ -2869,7 +2909,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>40</v>
       </c>
@@ -2877,7 +2917,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>42</v>
       </c>
@@ -2885,7 +2925,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>45</v>
       </c>
@@ -2893,7 +2933,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>49</v>
       </c>
@@ -2901,7 +2941,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>47</v>
       </c>
@@ -2914,4 +2954,63 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="210" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/控制器.xlsx
+++ b/doc/控制器.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="8220" windowWidth="25600" windowHeight="7780" activeTab="4"/>
+    <workbookView xWindow="-220" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="寄存器定义" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="105">
   <si>
     <t>寄存器</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -578,32 +578,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -612,15 +588,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -671,6 +638,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -694,6 +664,33 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -733,7 +730,7 @@
         <xdr:cNvPr id="3" name="直接连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCE7D1A-8146-4B2C-8BF5-1F1E1E5E6C9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FCE7D1A-8146-4B2C-8BF5-1F1E1E5E6C9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -783,7 +780,7 @@
         <xdr:cNvPr id="5" name="直接连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2262EF2A-6BE7-4BAE-B7BB-F24298545F56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2262EF2A-6BE7-4BAE-B7BB-F24298545F56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1094,50 +1091,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="31" t="s">
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="21" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="4">
         <v>1000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="4">
         <v>1001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="4">
         <v>1010</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="14">
+      <c r="B6" s="6">
         <v>1011</v>
       </c>
     </row>
@@ -1149,1520 +1146,1619 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P34"/>
+  <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="10.1640625" style="16" customWidth="1"/>
-    <col min="5" max="8" width="8.83203125" style="16"/>
-    <col min="9" max="9" width="15.1640625" style="16" customWidth="1"/>
-    <col min="10" max="10" width="11.5" style="16" customWidth="1"/>
-    <col min="11" max="11" width="21.1640625" style="16" customWidth="1"/>
-    <col min="12" max="12" width="16" style="16" customWidth="1"/>
-    <col min="13" max="13" width="13.33203125" style="16" customWidth="1"/>
-    <col min="14" max="14" width="13.83203125" style="16" customWidth="1"/>
-    <col min="15" max="15" width="12.33203125" style="16" customWidth="1"/>
+    <col min="1" max="3" width="8.83203125" style="7"/>
+    <col min="4" max="4" width="10.1640625" style="7" customWidth="1"/>
+    <col min="5" max="8" width="8.83203125" style="7"/>
+    <col min="9" max="9" width="15.1640625" style="7" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" style="8" customWidth="1"/>
+    <col min="11" max="11" width="5" style="7" customWidth="1"/>
+    <col min="12" max="12" width="21.1640625" style="7" customWidth="1"/>
+    <col min="13" max="13" width="16" style="7" customWidth="1"/>
+    <col min="14" max="14" width="13.33203125" style="7" customWidth="1"/>
+    <col min="15" max="15" width="13.83203125" style="7" customWidth="1"/>
+    <col min="16" max="16" width="12.33203125" style="7" customWidth="1"/>
+    <col min="17" max="17" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A2" s="41" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="39" t="s">
+      <c r="D2" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-    </row>
-    <row r="3" spans="1:16" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="40"/>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="17" t="s">
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="Q2" s="29"/>
+    </row>
+    <row r="3" spans="1:17" ht="28" x14ac:dyDescent="0.2">
+      <c r="A3" s="30"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="30"/>
+      <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="17" t="s">
+      <c r="J3" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="36"/>
+      <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="17" t="s">
+      <c r="M3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="M3" s="17" t="s">
+      <c r="N3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="17" t="s">
+      <c r="O3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="O3" s="17" t="s">
+      <c r="P3" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="P3" s="9"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A4" s="37" t="s">
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="B4" s="37">
+        <v>1</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="16">
-        <v>1</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16">
-        <v>1</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="16" t="s">
+      <c r="D4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="7">
+        <v>1</v>
+      </c>
+      <c r="F4" s="7">
+        <v>0</v>
+      </c>
+      <c r="G4" s="7">
+        <v>0</v>
+      </c>
+      <c r="H4" s="7">
+        <v>1</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K4" s="16" t="s">
+      <c r="L4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L4" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="16" t="s">
+      <c r="M4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N4" s="16">
+      <c r="O4" s="7">
         <v>3</v>
       </c>
-      <c r="O4" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="38"/>
-      <c r="B5" s="3">
+      <c r="P4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="28"/>
+      <c r="B5" s="39">
         <v>2</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="16">
-        <v>1</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
-        <v>1</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J5" s="16" t="s">
+      <c r="D5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>0</v>
+      </c>
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K5" s="16" t="s">
+      <c r="L5" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N5" s="16">
+      <c r="O5" s="7">
         <v>3</v>
       </c>
-      <c r="O5" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="38"/>
-      <c r="B6" s="3">
+      <c r="P5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="28"/>
+      <c r="B6" s="39">
         <v>3</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="16">
-        <v>1</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
-        <v>1</v>
-      </c>
-      <c r="I6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="16" t="s">
+      <c r="D6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E6" s="7">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <v>1</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K6" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="16" t="s">
+      <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L6" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="16">
+      <c r="O6" s="7">
         <v>3</v>
       </c>
-      <c r="O6" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A7" s="38"/>
-      <c r="B7" s="3">
+      <c r="P6" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="28"/>
+      <c r="B7" s="39">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="16">
-        <v>1</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>1</v>
-      </c>
-      <c r="I7" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" s="16" t="s">
+      <c r="D7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7">
+        <v>1</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="7">
+        <v>0</v>
+      </c>
+      <c r="H7" s="7">
+        <v>1</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="L7" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="M7" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="N7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N7" s="16">
+      <c r="O7" s="7">
         <v>3</v>
       </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A8" s="38"/>
-      <c r="B8" s="3">
+      <c r="P7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="39">
         <v>23</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="16">
-        <v>1</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>1</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="16" t="s">
+      <c r="D8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="7">
+        <v>1</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="7">
+        <v>0</v>
+      </c>
+      <c r="H8" s="7">
+        <v>1</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="L8" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="M8" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M8" s="16" t="s">
+      <c r="N8" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="N8" s="16">
+      <c r="O8" s="7">
         <v>3</v>
       </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A9" s="38"/>
-      <c r="B9" s="5">
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="28"/>
+      <c r="B9" s="41">
         <v>29</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="16">
-        <v>1</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>1</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J9" s="16" t="s">
+      <c r="D9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="7">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="7">
+        <v>0</v>
+      </c>
+      <c r="H9" s="7">
+        <v>1</v>
+      </c>
+      <c r="I9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J9" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16" t="s">
+      <c r="L9" s="7">
+        <v>0</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="16" t="s">
+      <c r="N9" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N9" s="16">
+      <c r="O9" s="7">
         <v>3</v>
       </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A10" s="37" t="s">
+      <c r="P9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="3">
+      <c r="B10" s="39">
         <v>5</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10" s="16">
-        <v>1</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>1</v>
-      </c>
-      <c r="I10" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="16" t="s">
+      <c r="D10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="7">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" s="7">
+        <v>0</v>
+      </c>
+      <c r="H10" s="7">
+        <v>1</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N10" s="16">
+      <c r="O10" s="7">
         <v>3</v>
       </c>
-      <c r="O10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A11" s="38"/>
-      <c r="B11" s="5">
+      <c r="P10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="28"/>
+      <c r="B11" s="41">
         <v>20</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="16">
-        <v>1</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>1</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="16" t="s">
+      <c r="D11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="7">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="7">
+        <v>0</v>
+      </c>
+      <c r="H11" s="7">
+        <v>1</v>
+      </c>
+      <c r="I11" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="K11" s="16" t="s">
+      <c r="L11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L11" s="16" t="s">
+      <c r="M11" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="N11" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N11" s="16">
+      <c r="O11" s="7">
         <v>3</v>
       </c>
-      <c r="O11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="37" t="s">
+      <c r="P11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="39">
         <v>21</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="D12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E12" s="16">
-        <v>1</v>
-      </c>
-      <c r="F12" s="16">
-        <v>0</v>
-      </c>
-      <c r="G12" s="16">
-        <v>0</v>
-      </c>
-      <c r="H12" s="16">
-        <v>1</v>
-      </c>
-      <c r="I12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="16" t="s">
+      <c r="D12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="7">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" s="7">
+        <v>0</v>
+      </c>
+      <c r="H12" s="7">
+        <v>1</v>
+      </c>
+      <c r="I12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="L12" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L12" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M12" s="16" t="s">
+      <c r="M12" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N12" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N12" s="16">
+      <c r="O12" s="7">
         <v>3</v>
       </c>
-      <c r="O12" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A13" s="38"/>
-      <c r="B13" s="3">
+      <c r="P12" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="28"/>
+      <c r="B13" s="39">
         <v>22</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="D13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="16">
-        <v>1</v>
-      </c>
-      <c r="F13" s="16">
-        <v>0</v>
-      </c>
-      <c r="G13" s="16">
-        <v>0</v>
-      </c>
-      <c r="H13" s="16">
-        <v>1</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13" s="16" t="s">
+      <c r="D13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="7">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" s="7">
+        <v>0</v>
+      </c>
+      <c r="H13" s="7">
+        <v>1</v>
+      </c>
+      <c r="I13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="L13" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N13" s="16">
+      <c r="O13" s="7">
         <v>3</v>
       </c>
-      <c r="O13" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="38"/>
-      <c r="B14" s="5">
+      <c r="P13" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="28"/>
+      <c r="B14" s="41">
         <v>30</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="16">
-        <v>1</v>
-      </c>
-      <c r="F14" s="16">
-        <v>0</v>
-      </c>
-      <c r="G14" s="16">
-        <v>0</v>
-      </c>
-      <c r="H14" s="16">
-        <v>1</v>
-      </c>
-      <c r="I14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J14" s="16" t="s">
+      <c r="D14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="7">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" s="7">
+        <v>0</v>
+      </c>
+      <c r="H14" s="7">
+        <v>1</v>
+      </c>
+      <c r="I14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="16" t="s">
+      <c r="L14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M14" s="16" t="s">
+      <c r="M14" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N14" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="16">
+      <c r="O14" s="7">
         <v>3</v>
       </c>
-      <c r="O14" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A15" s="37" t="s">
+      <c r="P14" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B15" s="39">
         <v>6</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="16">
-        <v>0</v>
-      </c>
-      <c r="F15" s="16">
-        <v>0</v>
-      </c>
-      <c r="G15" s="16">
-        <v>0</v>
-      </c>
-      <c r="H15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I15" s="16">
-        <v>0</v>
-      </c>
-      <c r="J15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N15" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O15" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="3">
+      <c r="D15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="7">
+        <v>0</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="7">
+        <v>0</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I15" s="7">
+        <v>0</v>
+      </c>
+      <c r="J15" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="28"/>
+      <c r="B16" s="39">
         <v>7</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="D16" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="16">
-        <v>0</v>
-      </c>
-      <c r="F16" s="16">
-        <v>0</v>
-      </c>
-      <c r="G16" s="16">
-        <v>0</v>
-      </c>
-      <c r="H16" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I16" s="16">
-        <v>1</v>
-      </c>
-      <c r="J16" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K16" s="16" t="s">
+      <c r="D16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="7">
+        <v>0</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" s="7">
+        <v>0</v>
+      </c>
+      <c r="H16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I16" s="7">
+        <v>1</v>
+      </c>
+      <c r="J16" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L16" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M16" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N16" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O16" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A17" s="38"/>
-      <c r="B17" s="3">
+      <c r="M16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="28"/>
+      <c r="B17" s="39">
         <v>8</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="D17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E17" s="16">
-        <v>0</v>
-      </c>
-      <c r="F17" s="16">
-        <v>0</v>
-      </c>
-      <c r="G17" s="16">
-        <v>0</v>
-      </c>
-      <c r="H17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I17" s="16">
+      <c r="D17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17" s="7">
+        <v>0</v>
+      </c>
+      <c r="F17" s="7">
+        <v>0</v>
+      </c>
+      <c r="G17" s="7">
+        <v>0</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="7">
         <v>2</v>
       </c>
-      <c r="J17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K17" s="16" t="s">
+      <c r="J17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N17" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O17" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A18" s="38"/>
-      <c r="B18" s="3">
+      <c r="M17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="28"/>
+      <c r="B18" s="39">
         <v>9</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="D18" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E18" s="16">
-        <v>0</v>
-      </c>
-      <c r="F18" s="16">
-        <v>0</v>
-      </c>
-      <c r="G18" s="16">
-        <v>0</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I18" s="16">
+      <c r="D18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="7">
+        <v>0</v>
+      </c>
+      <c r="F18" s="7">
+        <v>0</v>
+      </c>
+      <c r="G18" s="7">
+        <v>0</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I18" s="7">
         <v>3</v>
       </c>
-      <c r="J18" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K18" s="16" t="s">
+      <c r="J18" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="L18" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M18" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N18" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O18" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A19" s="38"/>
-      <c r="B19" s="3">
+      <c r="M18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O18" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="28"/>
+      <c r="B19" s="39">
         <v>11</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E19" s="16">
-        <v>0</v>
-      </c>
-      <c r="F19" s="16">
-        <v>0</v>
-      </c>
-      <c r="G19" s="16">
-        <v>0</v>
-      </c>
-      <c r="H19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I19" s="16">
+      <c r="D19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E19" s="7">
+        <v>0</v>
+      </c>
+      <c r="F19" s="7">
+        <v>0</v>
+      </c>
+      <c r="G19" s="7">
+        <v>0</v>
+      </c>
+      <c r="H19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" s="7">
         <v>4</v>
       </c>
-      <c r="J19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K19" s="16" t="s">
+      <c r="J19" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O19" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A20" s="38"/>
-      <c r="B20" s="3">
-        <v>26</v>
-      </c>
-      <c r="C20" s="4" t="s">
+      <c r="M19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="28"/>
+      <c r="B20" s="39">
+        <v>26</v>
+      </c>
+      <c r="C20" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" s="16">
-        <v>1</v>
-      </c>
-      <c r="F20" s="16">
-        <v>0</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0</v>
-      </c>
-      <c r="H20" s="16">
-        <v>1</v>
-      </c>
-      <c r="I20" s="16">
+      <c r="D20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="7">
+        <v>1</v>
+      </c>
+      <c r="F20" s="7">
+        <v>0</v>
+      </c>
+      <c r="G20" s="7">
+        <v>0</v>
+      </c>
+      <c r="H20" s="7">
+        <v>1</v>
+      </c>
+      <c r="I20" s="7">
         <v>5</v>
       </c>
-      <c r="J20" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K20" s="16" t="s">
+      <c r="J20" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="L20" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M20" s="16" t="s">
+      <c r="M20" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N20" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="N20" s="16">
+      <c r="O20" s="7">
         <v>2</v>
       </c>
-      <c r="O20" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A21" s="38"/>
-      <c r="B21" s="5">
+      <c r="P20" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="28"/>
+      <c r="B21" s="41">
         <v>27</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="42" t="s">
         <v>60</v>
       </c>
-      <c r="D21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="16">
-        <v>0</v>
-      </c>
-      <c r="F21" s="16">
-        <v>0</v>
-      </c>
-      <c r="G21" s="16">
-        <v>0</v>
-      </c>
-      <c r="H21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="16">
+      <c r="D21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="7">
+        <v>0</v>
+      </c>
+      <c r="F21" s="7">
+        <v>0</v>
+      </c>
+      <c r="G21" s="7">
+        <v>0</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="7">
         <v>6</v>
       </c>
-      <c r="J21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K21" s="16" t="s">
+      <c r="J21" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="L21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N21" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="O21" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="M21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O21" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="3">
+      <c r="B22" s="39">
         <v>10</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="40" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="16">
-        <v>0</v>
-      </c>
-      <c r="E22" s="16">
-        <v>1</v>
-      </c>
-      <c r="F22" s="16">
-        <v>0</v>
-      </c>
-      <c r="G22" s="16">
-        <v>0</v>
-      </c>
-      <c r="H22" s="16">
-        <v>1</v>
-      </c>
-      <c r="I22" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J22" s="16" t="s">
+      <c r="D22" s="7">
+        <v>0</v>
+      </c>
+      <c r="E22" s="7">
+        <v>1</v>
+      </c>
+      <c r="F22" s="7">
+        <v>0</v>
+      </c>
+      <c r="G22" s="7">
+        <v>0</v>
+      </c>
+      <c r="H22" s="7">
+        <v>1</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J22" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="L22" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="M22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="N22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N22" s="16">
-        <v>0</v>
-      </c>
-      <c r="O22" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A23" s="38"/>
-      <c r="B23" s="5">
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="28"/>
+      <c r="B23" s="41">
         <v>28</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="D23" s="16">
-        <v>1</v>
-      </c>
-      <c r="E23" s="16">
-        <v>1</v>
-      </c>
-      <c r="F23" s="16">
-        <v>0</v>
-      </c>
-      <c r="G23" s="16">
-        <v>0</v>
-      </c>
-      <c r="H23" s="16">
-        <v>1</v>
-      </c>
-      <c r="I23" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J23" s="16" t="s">
+      <c r="D23" s="7">
+        <v>1</v>
+      </c>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
+      <c r="F23" s="7">
+        <v>0</v>
+      </c>
+      <c r="G23" s="7">
+        <v>0</v>
+      </c>
+      <c r="H23" s="7">
+        <v>1</v>
+      </c>
+      <c r="I23" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="K23" s="16" t="s">
+      <c r="L23" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L23" s="16" t="s">
+      <c r="M23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="16" t="s">
+      <c r="N23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="N23" s="16">
-        <v>0</v>
-      </c>
-      <c r="O23" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A24" s="37" t="s">
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="3">
+      <c r="B24" s="39">
         <v>15</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="40" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="16">
-        <v>1</v>
-      </c>
-      <c r="F24" s="16">
-        <v>0</v>
-      </c>
-      <c r="G24" s="16">
-        <v>0</v>
-      </c>
-      <c r="H24" s="16">
-        <v>1</v>
-      </c>
-      <c r="I24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K24" s="16" t="s">
+      <c r="D24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
+      <c r="F24" s="7">
+        <v>0</v>
+      </c>
+      <c r="G24" s="7">
+        <v>0</v>
+      </c>
+      <c r="H24" s="7">
+        <v>1</v>
+      </c>
+      <c r="I24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="L24" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M24" s="16" t="s">
+      <c r="M24" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N24" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N24" s="16">
+      <c r="O24" s="7">
         <v>4</v>
       </c>
-      <c r="O24" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A25" s="38"/>
-      <c r="B25" s="3">
+      <c r="P24" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="28"/>
+      <c r="B25" s="39">
         <v>16</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="40" t="s">
         <v>68</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E25" s="16">
-        <v>1</v>
-      </c>
-      <c r="F25" s="16">
-        <v>0</v>
-      </c>
-      <c r="G25" s="16">
-        <v>0</v>
-      </c>
-      <c r="H25" s="16">
-        <v>1</v>
-      </c>
-      <c r="I25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L25" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M25" s="16" t="s">
+      <c r="D25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="7">
+        <v>1</v>
+      </c>
+      <c r="F25" s="7">
+        <v>0</v>
+      </c>
+      <c r="G25" s="7">
+        <v>0</v>
+      </c>
+      <c r="H25" s="7">
+        <v>1</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J25" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N25" s="16">
-        <v>1</v>
-      </c>
-      <c r="O25" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A26" s="38"/>
-      <c r="B26" s="3">
+      <c r="O25" s="7">
+        <v>1</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="28"/>
+      <c r="B26" s="39">
         <v>17</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D26" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E26" s="16">
-        <v>1</v>
-      </c>
-      <c r="F26" s="16">
-        <v>0</v>
-      </c>
-      <c r="G26" s="16">
-        <v>0</v>
-      </c>
-      <c r="H26" s="16">
-        <v>1</v>
-      </c>
-      <c r="I26" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J26" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K26" s="16" t="s">
+      <c r="D26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="7">
+        <v>1</v>
+      </c>
+      <c r="F26" s="7">
+        <v>0</v>
+      </c>
+      <c r="G26" s="7">
+        <v>0</v>
+      </c>
+      <c r="H26" s="7">
+        <v>1</v>
+      </c>
+      <c r="I26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L26" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M26" s="16" t="s">
+      <c r="M26" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N26" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="N26" s="16">
+      <c r="O26" s="7">
         <v>4</v>
       </c>
-      <c r="O26" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A27" s="38"/>
-      <c r="B27" s="5">
+      <c r="P26" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="28"/>
+      <c r="B27" s="41">
         <v>18</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="42" t="s">
         <v>70</v>
       </c>
-      <c r="D27" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E27" s="16">
-        <v>1</v>
-      </c>
-      <c r="F27" s="16">
-        <v>0</v>
-      </c>
-      <c r="G27" s="16">
-        <v>0</v>
-      </c>
-      <c r="H27" s="16">
-        <v>1</v>
-      </c>
-      <c r="I27" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K27" s="16" t="s">
+      <c r="D27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="7">
+        <v>1</v>
+      </c>
+      <c r="F27" s="7">
+        <v>0</v>
+      </c>
+      <c r="G27" s="7">
+        <v>0</v>
+      </c>
+      <c r="H27" s="7">
+        <v>1</v>
+      </c>
+      <c r="I27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J27" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L27" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L27" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M27" s="16" t="s">
+      <c r="M27" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="N27" s="16">
+      <c r="O27" s="7">
         <v>4</v>
       </c>
-      <c r="O27" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A28" s="37" t="s">
+      <c r="P27" s="7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="3">
+      <c r="B28" s="39">
         <v>12</v>
       </c>
-      <c r="C28" s="4" t="s">
+      <c r="C28" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D28" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E28" s="16">
-        <v>1</v>
-      </c>
-      <c r="F28" s="16">
-        <v>0</v>
-      </c>
-      <c r="G28" s="16">
-        <v>0</v>
-      </c>
-      <c r="H28" s="16">
-        <v>1</v>
-      </c>
-      <c r="I28" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J28" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="K28" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="L28" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M28" s="16" t="s">
+      <c r="D28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="7">
+        <v>1</v>
+      </c>
+      <c r="F28" s="7">
+        <v>0</v>
+      </c>
+      <c r="G28" s="7">
+        <v>0</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1</v>
+      </c>
+      <c r="I28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M28" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N28" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N28" s="16">
+      <c r="O28" s="7">
         <v>5</v>
       </c>
-      <c r="O28" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A29" s="38"/>
-      <c r="B29" s="3">
+      <c r="P28" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="28"/>
+      <c r="B29" s="39">
         <v>13</v>
       </c>
-      <c r="C29" s="4" t="s">
+      <c r="C29" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="D29" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E29" s="16">
-        <v>1</v>
-      </c>
-      <c r="F29" s="16">
-        <v>0</v>
-      </c>
-      <c r="G29" s="16">
-        <v>1</v>
-      </c>
-      <c r="H29" s="16">
-        <v>0</v>
-      </c>
-      <c r="I29" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J29" s="16" t="s">
+      <c r="D29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E29" s="7">
+        <v>1</v>
+      </c>
+      <c r="F29" s="7">
+        <v>0</v>
+      </c>
+      <c r="G29" s="7">
+        <v>1</v>
+      </c>
+      <c r="H29" s="7">
+        <v>0</v>
+      </c>
+      <c r="I29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J29" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="L29" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L29" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M29" s="16" t="s">
+      <c r="M29" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N29" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="N29" s="16">
+      <c r="O29" s="7">
         <v>3</v>
       </c>
-      <c r="O29" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A30" s="38"/>
-      <c r="B30" s="3">
+      <c r="P29" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="28"/>
+      <c r="B30" s="39">
         <v>14</v>
       </c>
-      <c r="C30" s="4" t="s">
+      <c r="C30" s="40" t="s">
         <v>74</v>
       </c>
-      <c r="D30" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E30" s="16">
-        <v>1</v>
-      </c>
-      <c r="F30" s="16">
-        <v>0</v>
-      </c>
-      <c r="G30" s="16">
-        <v>1</v>
-      </c>
-      <c r="H30" s="16">
-        <v>0</v>
-      </c>
-      <c r="I30" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J30" s="16" t="s">
+      <c r="D30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E30" s="7">
+        <v>1</v>
+      </c>
+      <c r="F30" s="7">
+        <v>0</v>
+      </c>
+      <c r="G30" s="7">
+        <v>1</v>
+      </c>
+      <c r="H30" s="7">
+        <v>0</v>
+      </c>
+      <c r="I30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J30" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="L30" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L30" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M30" s="16" t="s">
+      <c r="M30" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N30" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="N30" s="16">
+      <c r="O30" s="7">
         <v>3</v>
       </c>
-      <c r="O30" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A31" s="38"/>
-      <c r="B31" s="3">
+      <c r="P30" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="28"/>
+      <c r="B31" s="39">
         <v>24</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="40" t="s">
         <v>75</v>
       </c>
-      <c r="D31" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E31" s="16">
-        <v>0</v>
-      </c>
-      <c r="F31" s="16">
-        <v>1</v>
-      </c>
-      <c r="G31" s="16">
-        <v>0</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I31" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J31" s="16" t="s">
+      <c r="D31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E31" s="7">
+        <v>0</v>
+      </c>
+      <c r="F31" s="7">
+        <v>1</v>
+      </c>
+      <c r="G31" s="7">
+        <v>0</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K31" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K31" s="16" t="s">
+      <c r="L31" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="L31" s="16" t="s">
+      <c r="M31" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="M31" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N31" s="16">
+      <c r="N31" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O31" s="7">
         <v>3</v>
       </c>
-      <c r="O31" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A32" s="38"/>
-      <c r="B32" s="3">
+      <c r="P31" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="28"/>
+      <c r="B32" s="39">
         <v>31</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E32" s="16">
-        <v>0</v>
-      </c>
-      <c r="F32" s="16">
-        <v>1</v>
-      </c>
-      <c r="G32" s="16">
-        <v>0</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I32" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J32" s="16" t="s">
+      <c r="D32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E32" s="7">
+        <v>0</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1</v>
+      </c>
+      <c r="G32" s="7">
+        <v>0</v>
+      </c>
+      <c r="H32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J32" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K32" s="16" t="s">
+      <c r="L32" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L32" s="16" t="s">
+      <c r="M32" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="M32" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N32" s="16">
+      <c r="N32" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O32" s="7">
         <v>3</v>
       </c>
-      <c r="O32" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" s="38"/>
-      <c r="B33" s="5">
+      <c r="P32" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A33" s="28"/>
+      <c r="B33" s="41">
         <v>25</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E33" s="16">
-        <v>0</v>
-      </c>
-      <c r="F33" s="16">
-        <v>1</v>
-      </c>
-      <c r="G33" s="16">
-        <v>0</v>
-      </c>
-      <c r="H33" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="I33" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J33" s="16" t="s">
+      <c r="D33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E33" s="7">
+        <v>0</v>
+      </c>
+      <c r="F33" s="7">
+        <v>1</v>
+      </c>
+      <c r="G33" s="7">
+        <v>0</v>
+      </c>
+      <c r="H33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J33" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="K33" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="K33" s="16" t="s">
+      <c r="L33" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L33" s="16" t="s">
+      <c r="M33" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="M33" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="N33" s="16">
+      <c r="N33" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="O33" s="7">
         <v>3</v>
       </c>
-      <c r="O33" s="16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" s="15" t="s">
+      <c r="P33" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A34" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="7">
+      <c r="B34" s="43">
         <v>19</v>
       </c>
-      <c r="C34" s="8" t="s">
+      <c r="C34" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="16">
-        <v>1</v>
-      </c>
-      <c r="F34" s="16">
-        <v>0</v>
-      </c>
-      <c r="G34" s="16">
-        <v>0</v>
-      </c>
-      <c r="H34" s="16">
-        <v>1</v>
-      </c>
-      <c r="I34" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="J34" s="16" t="s">
+      <c r="D34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="7">
+        <v>1</v>
+      </c>
+      <c r="F34" s="7">
+        <v>0</v>
+      </c>
+      <c r="G34" s="7">
+        <v>0</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="J34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="K34" s="16">
-        <v>0</v>
-      </c>
-      <c r="L34" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="M34" s="16">
-        <v>0</v>
-      </c>
-      <c r="N34" s="16">
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N34" s="7">
+        <v>0</v>
+      </c>
+      <c r="O34" s="7">
         <v>3</v>
       </c>
-      <c r="O34" s="16">
+      <c r="P34" s="7">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A28:A33"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="A2:A3"/>
-    <mergeCell ref="D2:P2"/>
+    <mergeCell ref="D2:Q2"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A12:A14"/>
     <mergeCell ref="A15:A21"/>
     <mergeCell ref="A22:A23"/>
     <mergeCell ref="A24:A27"/>
+    <mergeCell ref="J3:K3"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2684,171 +2780,171 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="42">
-        <v>0</v>
-      </c>
-      <c r="D1" s="44" t="s">
+      <c r="C1" s="32">
+        <v>0</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="20"/>
-      <c r="F1" s="20"/>
-      <c r="G1" s="20"/>
-      <c r="H1" s="20"/>
-      <c r="I1" s="20"/>
-      <c r="J1" s="20"/>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="M1" s="20"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
     </row>
     <row r="2" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
+      <c r="C2" s="33"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="9"/>
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="22">
-        <v>0</v>
-      </c>
-      <c r="C3" s="34">
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="23">
         <v>2</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D3" s="2">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B4" s="23">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="C4" s="17">
         <v>2</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="28">
-        <v>1</v>
-      </c>
-      <c r="D5" s="12">
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="23">
+      <c r="B6" s="12">
         <v>3</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="17">
         <v>2</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7" s="12">
         <v>4</v>
       </c>
-      <c r="C7" s="28">
-        <v>0</v>
-      </c>
-      <c r="D7" s="12">
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8" s="12">
         <v>5</v>
       </c>
-      <c r="C8" s="28">
-        <v>0</v>
-      </c>
-      <c r="D8" s="12">
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="24">
+      <c r="B9" s="13">
         <v>6</v>
       </c>
-      <c r="C9" s="31">
-        <v>0</v>
-      </c>
-      <c r="D9" s="14">
+      <c r="C9" s="20">
+        <v>0</v>
+      </c>
+      <c r="D9" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="22">
-        <v>0</v>
-      </c>
-      <c r="C11" s="10" t="s">
+      <c r="B11" s="11">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-      <c r="B12" s="23">
-        <v>1</v>
-      </c>
-      <c r="C12" s="12" t="s">
+      <c r="A12" s="3"/>
+      <c r="B12" s="12">
+        <v>1</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="13"/>
-      <c r="B13" s="24">
+      <c r="A13" s="5"/>
+      <c r="B13" s="13">
         <v>2</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2868,84 +2964,84 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="8" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="19" t="s">
+      <c r="A2" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="8" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="8" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="8" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="8" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2960,53 +3056,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="210" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="210" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="19"/>
+    <col min="1" max="1" width="14" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="25" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="8" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="8" t="s">
         <v>103</v>
       </c>
     </row>

--- a/doc/控制器.xlsx
+++ b/doc/控制器.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27815"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/huangwx/Programs/ComputerOrganization/SAOestCPU/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yifan/Desktop/SAOestCPU/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-220" yWindow="460" windowWidth="25600" windowHeight="15540" activeTab="1"/>
+    <workbookView xWindow="-20" yWindow="460" windowWidth="14400" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="寄存器定义" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="108">
   <si>
     <t>寄存器</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -366,6 +366,18 @@
   </si>
   <si>
     <t>O (Overflow Flag)</t>
+  </si>
+  <si>
+    <t>0001</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>0(1100)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -376,7 +388,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -395,7 +407,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -432,7 +444,7 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="等线"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -638,6 +650,30 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -653,6 +689,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -665,36 +704,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 6" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -730,7 +742,7 @@
         <xdr:cNvPr id="3" name="直接连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FCE7D1A-8146-4B2C-8BF5-1F1E1E5E6C9F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCE7D1A-8146-4B2C-8BF5-1F1E1E5E6C9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -780,7 +792,7 @@
         <xdr:cNvPr id="5" name="直接连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2262EF2A-6BE7-4BAE-B7BB-F24298545F56}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2262EF2A-6BE7-4BAE-B7BB-F24298545F56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1078,10 +1090,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1131,11 +1143,19 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="4">
         <v>1011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" s="6">
+        <v>1100</v>
       </c>
     </row>
   </sheetData>
@@ -1148,11 +1168,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L23" sqref="L23"/>
+      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1172,36 +1192,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="37"/>
+      <c r="H2" s="37"/>
+      <c r="I2" s="37"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="37"/>
+      <c r="O2" s="37"/>
+      <c r="P2" s="37"/>
+      <c r="Q2" s="37"/>
     </row>
     <row r="3" spans="1:17" ht="28" x14ac:dyDescent="0.2">
-      <c r="A3" s="30"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="38"/>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1220,10 +1240,10 @@
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="J3" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="36"/>
+      <c r="K3" s="40"/>
       <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1242,13 +1262,13 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="37">
-        <v>1</v>
-      </c>
-      <c r="C4" s="38" t="s">
+      <c r="B4" s="27">
+        <v>1</v>
+      </c>
+      <c r="C4" s="28" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1270,7 +1290,7 @@
         <v>26</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>27</v>
@@ -1292,11 +1312,11 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="28"/>
-      <c r="B5" s="39">
+      <c r="A5" s="36"/>
+      <c r="B5" s="29">
         <v>2</v>
       </c>
-      <c r="C5" s="40" t="s">
+      <c r="C5" s="30" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1340,11 +1360,11 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A6" s="28"/>
-      <c r="B6" s="39">
+      <c r="A6" s="36"/>
+      <c r="B6" s="29">
         <v>3</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="30" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1372,13 +1392,13 @@
         <v>27</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="M6" s="7" t="s">
         <v>26</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="O6" s="7">
         <v>3</v>
@@ -1388,11 +1408,11 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="39">
+      <c r="A7" s="36"/>
+      <c r="B7" s="29">
         <v>4</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="30" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1436,11 +1456,11 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="39">
+      <c r="A8" s="36"/>
+      <c r="B8" s="29">
         <v>23</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="30" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1484,11 +1504,11 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="41">
+      <c r="A9" s="36"/>
+      <c r="B9" s="31">
         <v>29</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="32" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1515,8 +1535,8 @@
       <c r="K9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L9" s="7">
-        <v>0</v>
+      <c r="L9" s="7" t="s">
+        <v>106</v>
       </c>
       <c r="M9" s="7" t="s">
         <v>30</v>
@@ -1532,13 +1552,13 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="29">
         <v>5</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="30" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1582,11 +1602,11 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="41">
+      <c r="A11" s="36"/>
+      <c r="B11" s="31">
         <v>20</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="32" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1630,13 +1650,13 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="29">
         <v>21</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="30" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1680,11 +1700,11 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="28"/>
-      <c r="B13" s="39">
+      <c r="A13" s="36"/>
+      <c r="B13" s="29">
         <v>22</v>
       </c>
-      <c r="C13" s="40" t="s">
+      <c r="C13" s="30" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1728,11 +1748,11 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="28"/>
-      <c r="B14" s="41">
+      <c r="A14" s="36"/>
+      <c r="B14" s="31">
         <v>30</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="32" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1776,13 +1796,13 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="39">
+      <c r="B15" s="29">
         <v>6</v>
       </c>
-      <c r="C15" s="40" t="s">
+      <c r="C15" s="30" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1826,11 +1846,11 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A16" s="28"/>
-      <c r="B16" s="39">
+      <c r="A16" s="36"/>
+      <c r="B16" s="29">
         <v>7</v>
       </c>
-      <c r="C16" s="40" t="s">
+      <c r="C16" s="30" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1874,11 +1894,11 @@
       </c>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A17" s="28"/>
-      <c r="B17" s="39">
+      <c r="A17" s="36"/>
+      <c r="B17" s="29">
         <v>8</v>
       </c>
-      <c r="C17" s="40" t="s">
+      <c r="C17" s="30" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -1922,11 +1942,11 @@
       </c>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A18" s="28"/>
-      <c r="B18" s="39">
+      <c r="A18" s="36"/>
+      <c r="B18" s="29">
         <v>9</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="30" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -1970,11 +1990,11 @@
       </c>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A19" s="28"/>
-      <c r="B19" s="39">
+      <c r="A19" s="36"/>
+      <c r="B19" s="29">
         <v>11</v>
       </c>
-      <c r="C19" s="40" t="s">
+      <c r="C19" s="30" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -2018,11 +2038,11 @@
       </c>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A20" s="28"/>
-      <c r="B20" s="39">
-        <v>26</v>
-      </c>
-      <c r="C20" s="40" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="29">
+        <v>26</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -2066,11 +2086,11 @@
       </c>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A21" s="28"/>
-      <c r="B21" s="41">
+      <c r="A21" s="36"/>
+      <c r="B21" s="31">
         <v>27</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="32" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -2114,13 +2134,13 @@
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A22" s="27" t="s">
+      <c r="A22" s="35" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="29">
         <v>10</v>
       </c>
-      <c r="C22" s="40" t="s">
+      <c r="C22" s="30" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="7">
@@ -2164,11 +2184,11 @@
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A23" s="28"/>
-      <c r="B23" s="41">
+      <c r="A23" s="36"/>
+      <c r="B23" s="31">
         <v>28</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="32" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="7">
@@ -2212,13 +2232,13 @@
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A24" s="27" t="s">
+      <c r="A24" s="35" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="29">
         <v>15</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="30" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -2262,11 +2282,11 @@
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A25" s="28"/>
-      <c r="B25" s="39">
+      <c r="A25" s="36"/>
+      <c r="B25" s="29">
         <v>16</v>
       </c>
-      <c r="C25" s="40" t="s">
+      <c r="C25" s="30" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -2310,11 +2330,11 @@
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A26" s="28"/>
-      <c r="B26" s="39">
+      <c r="A26" s="36"/>
+      <c r="B26" s="29">
         <v>17</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="30" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -2358,11 +2378,11 @@
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A27" s="28"/>
-      <c r="B27" s="41">
+      <c r="A27" s="36"/>
+      <c r="B27" s="31">
         <v>18</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="32" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -2406,13 +2426,13 @@
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
+      <c r="A28" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="29">
         <v>12</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="30" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -2456,11 +2476,11 @@
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A29" s="28"/>
-      <c r="B29" s="39">
+      <c r="A29" s="36"/>
+      <c r="B29" s="29">
         <v>13</v>
       </c>
-      <c r="C29" s="40" t="s">
+      <c r="C29" s="30" t="s">
         <v>73</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -2504,11 +2524,11 @@
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A30" s="28"/>
-      <c r="B30" s="39">
+      <c r="A30" s="36"/>
+      <c r="B30" s="29">
         <v>14</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="30" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -2552,11 +2572,11 @@
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A31" s="28"/>
-      <c r="B31" s="39">
+      <c r="A31" s="36"/>
+      <c r="B31" s="29">
         <v>24</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="30" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -2600,11 +2620,11 @@
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A32" s="28"/>
-      <c r="B32" s="39">
+      <c r="A32" s="36"/>
+      <c r="B32" s="29">
         <v>31</v>
       </c>
-      <c r="C32" s="42" t="s">
+      <c r="C32" s="32" t="s">
         <v>76</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -2648,11 +2668,11 @@
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A33" s="28"/>
-      <c r="B33" s="41">
+      <c r="A33" s="36"/>
+      <c r="B33" s="31">
         <v>25</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="32" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -2699,10 +2719,10 @@
       <c r="A34" s="26" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="33">
         <v>19</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="34" t="s">
         <v>79</v>
       </c>
       <c r="D34" s="7" t="s">
@@ -2786,10 +2806,10 @@
       <c r="B1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="32">
-        <v>0</v>
-      </c>
-      <c r="D1" s="34" t="s">
+      <c r="C1" s="41">
+        <v>0</v>
+      </c>
+      <c r="D1" s="43" t="s">
         <v>89</v>
       </c>
       <c r="E1" s="9"/>
@@ -2809,8 +2829,8 @@
       <c r="B2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="35"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="44"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -3107,6 +3127,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/doc/控制器.xlsx
+++ b/doc/控制器.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-20" yWindow="460" windowWidth="14400" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540"/>
   </bookViews>
   <sheets>
     <sheet name="寄存器定义" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="109">
   <si>
     <t>寄存器</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -377,6 +377,10 @@
   </si>
   <si>
     <t>ZERO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO USE(prevent from forward)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -742,7 +746,7 @@
         <xdr:cNvPr id="3" name="直接连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCE7D1A-8146-4B2C-8BF5-1F1E1E5E6C9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FCE7D1A-8146-4B2C-8BF5-1F1E1E5E6C9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -792,7 +796,7 @@
         <xdr:cNvPr id="5" name="直接连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2262EF2A-6BE7-4BAE-B7BB-F24298545F56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2262EF2A-6BE7-4BAE-B7BB-F24298545F56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1090,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1151,11 +1155,19 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="4">
         <v>1100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="6">
+        <v>1111</v>
       </c>
     </row>
   </sheetData>
@@ -1169,10 +1181,10 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L9" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/doc/控制器.xlsx
+++ b/doc/控制器.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr filterPrivacy="1"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yifan/Desktop/SAOestCPU/doc/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="寄存器定义" sheetId="2" r:id="rId1"/>
@@ -23,18 +18,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="341" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="112">
   <si>
     <t>寄存器</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -381,14 +376,26 @@
   </si>
   <si>
     <t>NO USE(prevent from forward)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DONTJUMP</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZERO</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>NO USE</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -449,6 +456,8 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -711,7 +720,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 6" xfId="1"/>
+    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -746,7 +755,7 @@
         <xdr:cNvPr id="3" name="直接连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FCE7D1A-8146-4B2C-8BF5-1F1E1E5E6C9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCE7D1A-8146-4B2C-8BF5-1F1E1E5E6C9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -796,7 +805,7 @@
         <xdr:cNvPr id="5" name="直接连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2262EF2A-6BE7-4BAE-B7BB-F24298545F56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2262EF2A-6BE7-4BAE-B7BB-F24298545F56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1093,20 +1102,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.58203125" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1114,7 +1123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1122,7 +1131,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1130,7 +1139,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1138,7 +1147,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1146,7 +1155,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1163,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
         <v>107</v>
       </c>
@@ -1162,7 +1171,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
         <v>108</v>
       </c>
@@ -1177,17 +1186,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:Q34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="G4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L19" sqref="L19"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="7"/>
     <col min="4" max="4" width="10.1640625" style="7" customWidth="1"/>
@@ -1203,7 +1212,7 @@
     <col min="17" max="17" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17">
       <c r="A2" s="39" t="s">
         <v>8</v>
       </c>
@@ -1230,7 +1239,7 @@
       <c r="P2" s="37"/>
       <c r="Q2" s="37"/>
     </row>
-    <row r="3" spans="1:17" ht="28" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="28">
       <c r="A3" s="38"/>
       <c r="B3" s="38"/>
       <c r="C3" s="38"/>
@@ -1273,7 +1282,7 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17">
       <c r="A4" s="35" t="s">
         <v>24</v>
       </c>
@@ -1298,8 +1307,8 @@
       <c r="H4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="7" t="s">
-        <v>26</v>
+      <c r="I4" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>105</v>
@@ -1311,7 +1320,7 @@
         <v>28</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>28</v>
@@ -1323,7 +1332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17">
       <c r="A5" s="36"/>
       <c r="B5" s="29">
         <v>2</v>
@@ -1346,8 +1355,8 @@
       <c r="H5" s="7">
         <v>1</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>26</v>
+      <c r="I5" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>85</v>
@@ -1359,7 +1368,7 @@
         <v>28</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>30</v>
@@ -1371,7 +1380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17">
       <c r="A6" s="36"/>
       <c r="B6" s="29">
         <v>3</v>
@@ -1394,8 +1403,8 @@
       <c r="H6" s="7">
         <v>1</v>
       </c>
-      <c r="I6" s="7" t="s">
-        <v>26</v>
+      <c r="I6" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>85</v>
@@ -1407,7 +1416,7 @@
         <v>6</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>6</v>
@@ -1419,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17">
       <c r="A7" s="36"/>
       <c r="B7" s="29">
         <v>4</v>
@@ -1442,8 +1451,8 @@
       <c r="H7" s="7">
         <v>1</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>26</v>
+      <c r="I7" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>85</v>
@@ -1467,7 +1476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17">
       <c r="A8" s="36"/>
       <c r="B8" s="29">
         <v>23</v>
@@ -1490,8 +1499,8 @@
       <c r="H8" s="7">
         <v>1</v>
       </c>
-      <c r="I8" s="7" t="s">
-        <v>26</v>
+      <c r="I8" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>86</v>
@@ -1515,7 +1524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17">
       <c r="A9" s="36"/>
       <c r="B9" s="31">
         <v>29</v>
@@ -1538,8 +1547,8 @@
       <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>26</v>
+      <c r="I9" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>86</v>
@@ -1563,7 +1572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17">
       <c r="A10" s="35" t="s">
         <v>38</v>
       </c>
@@ -1588,8 +1597,8 @@
       <c r="H10" s="7">
         <v>1</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>26</v>
+      <c r="I10" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>87</v>
@@ -1613,7 +1622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17">
       <c r="A11" s="36"/>
       <c r="B11" s="31">
         <v>20</v>
@@ -1636,8 +1645,8 @@
       <c r="H11" s="7">
         <v>1</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>26</v>
+      <c r="I11" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>88</v>
@@ -1661,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17">
       <c r="A12" s="35" t="s">
         <v>43</v>
       </c>
@@ -1686,8 +1695,8 @@
       <c r="H12" s="7">
         <v>1</v>
       </c>
-      <c r="I12" s="7" t="s">
-        <v>26</v>
+      <c r="I12" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>90</v>
@@ -1699,7 +1708,7 @@
         <v>30</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>28</v>
@@ -1711,7 +1720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17">
       <c r="A13" s="36"/>
       <c r="B13" s="29">
         <v>22</v>
@@ -1734,8 +1743,8 @@
       <c r="H13" s="7">
         <v>1</v>
       </c>
-      <c r="I13" s="7" t="s">
-        <v>26</v>
+      <c r="I13" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>92</v>
@@ -1747,7 +1756,7 @@
         <v>30</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>28</v>
@@ -1759,7 +1768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17">
       <c r="A14" s="36"/>
       <c r="B14" s="31">
         <v>30</v>
@@ -1782,8 +1791,8 @@
       <c r="H14" s="7">
         <v>1</v>
       </c>
-      <c r="I14" s="7" t="s">
-        <v>26</v>
+      <c r="I14" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>91</v>
@@ -1795,7 +1804,7 @@
         <v>30</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>28</v>
@@ -1807,7 +1816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17">
       <c r="A15" s="35" t="s">
         <v>50</v>
       </c>
@@ -1842,13 +1851,13 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -1857,7 +1866,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17">
       <c r="A16" s="36"/>
       <c r="B16" s="29">
         <v>7</v>
@@ -1893,10 +1902,10 @@
         <v>53</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>26</v>
@@ -1905,7 +1914,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16">
       <c r="A17" s="36"/>
       <c r="B17" s="29">
         <v>8</v>
@@ -1941,10 +1950,10 @@
         <v>53</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>26</v>
@@ -1953,7 +1962,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16">
       <c r="A18" s="36"/>
       <c r="B18" s="29">
         <v>9</v>
@@ -1989,10 +1998,10 @@
         <v>56</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -2001,7 +2010,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16">
       <c r="A19" s="36"/>
       <c r="B19" s="29">
         <v>11</v>
@@ -2037,10 +2046,10 @@
         <v>53</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>26</v>
@@ -2049,7 +2058,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16">
       <c r="A20" s="36"/>
       <c r="B20" s="29">
         <v>26</v>
@@ -2085,7 +2094,7 @@
         <v>53</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>59</v>
@@ -2097,7 +2106,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16">
       <c r="A21" s="36"/>
       <c r="B21" s="31">
         <v>27</v>
@@ -2133,10 +2142,10 @@
         <v>59</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -2145,7 +2154,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16">
       <c r="A22" s="35" t="s">
         <v>61</v>
       </c>
@@ -2170,8 +2179,8 @@
       <c r="H22" s="7">
         <v>1</v>
       </c>
-      <c r="I22" s="7" t="s">
-        <v>26</v>
+      <c r="I22" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>86</v>
@@ -2188,14 +2197,14 @@
       <c r="N22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O22" s="7">
-        <v>0</v>
-      </c>
-      <c r="P22" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O22" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="36"/>
       <c r="B23" s="31">
         <v>28</v>
@@ -2218,8 +2227,8 @@
       <c r="H23" s="7">
         <v>1</v>
       </c>
-      <c r="I23" s="7" t="s">
-        <v>26</v>
+      <c r="I23" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>86</v>
@@ -2236,14 +2245,14 @@
       <c r="N23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O23" s="7">
-        <v>0</v>
-      </c>
-      <c r="P23" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="O23" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P23" s="7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="35" t="s">
         <v>65</v>
       </c>
@@ -2268,8 +2277,8 @@
       <c r="H24" s="7">
         <v>1</v>
       </c>
-      <c r="I24" s="7" t="s">
-        <v>26</v>
+      <c r="I24" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>84</v>
@@ -2281,7 +2290,7 @@
         <v>67</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>28</v>
@@ -2293,7 +2302,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:16">
       <c r="A25" s="36"/>
       <c r="B25" s="29">
         <v>16</v>
@@ -2316,8 +2325,8 @@
       <c r="H25" s="7">
         <v>1</v>
       </c>
-      <c r="I25" s="7" t="s">
-        <v>26</v>
+      <c r="I25" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>84</v>
@@ -2326,10 +2335,10 @@
         <v>26</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>28</v>
@@ -2341,7 +2350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16">
       <c r="A26" s="36"/>
       <c r="B26" s="29">
         <v>17</v>
@@ -2364,8 +2373,8 @@
       <c r="H26" s="7">
         <v>1</v>
       </c>
-      <c r="I26" s="7" t="s">
-        <v>26</v>
+      <c r="I26" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>84</v>
@@ -2377,7 +2386,7 @@
         <v>28</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N26" s="7" t="s">
         <v>67</v>
@@ -2389,7 +2398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:16">
       <c r="A27" s="36"/>
       <c r="B27" s="31">
         <v>18</v>
@@ -2412,8 +2421,8 @@
       <c r="H27" s="7">
         <v>1</v>
       </c>
-      <c r="I27" s="7" t="s">
-        <v>26</v>
+      <c r="I27" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>84</v>
@@ -2425,7 +2434,7 @@
         <v>28</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>32</v>
@@ -2437,7 +2446,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16">
       <c r="A28" s="35" t="s">
         <v>71</v>
       </c>
@@ -2462,8 +2471,8 @@
       <c r="H28" s="7">
         <v>1</v>
       </c>
-      <c r="I28" s="7" t="s">
-        <v>26</v>
+      <c r="I28" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>84</v>
@@ -2472,10 +2481,10 @@
         <v>26</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>28</v>
@@ -2487,7 +2496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16">
       <c r="A29" s="36"/>
       <c r="B29" s="29">
         <v>13</v>
@@ -2510,8 +2519,8 @@
       <c r="H29" s="7">
         <v>0</v>
       </c>
-      <c r="I29" s="7" t="s">
-        <v>26</v>
+      <c r="I29" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>85</v>
@@ -2523,7 +2532,7 @@
         <v>28</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>30</v>
@@ -2535,7 +2544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16">
       <c r="A30" s="36"/>
       <c r="B30" s="29">
         <v>14</v>
@@ -2558,8 +2567,8 @@
       <c r="H30" s="7">
         <v>0</v>
       </c>
-      <c r="I30" s="7" t="s">
-        <v>26</v>
+      <c r="I30" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>85</v>
@@ -2571,7 +2580,7 @@
         <v>32</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="N30" s="7" t="s">
         <v>28</v>
@@ -2583,7 +2592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16">
       <c r="A31" s="36"/>
       <c r="B31" s="29">
         <v>24</v>
@@ -2606,8 +2615,8 @@
       <c r="H31" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I31" s="7" t="s">
-        <v>26</v>
+      <c r="I31" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>85</v>
@@ -2622,7 +2631,7 @@
         <v>30</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="O31" s="7">
         <v>3</v>
@@ -2631,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16">
       <c r="A32" s="36"/>
       <c r="B32" s="29">
         <v>31</v>
@@ -2654,8 +2663,8 @@
       <c r="H32" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="7" t="s">
-        <v>26</v>
+      <c r="I32" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>85</v>
@@ -2670,7 +2679,7 @@
         <v>59</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="O32" s="7">
         <v>3</v>
@@ -2679,7 +2688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16">
       <c r="A33" s="36"/>
       <c r="B33" s="31">
         <v>25</v>
@@ -2702,8 +2711,8 @@
       <c r="H33" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="I33" s="7" t="s">
-        <v>26</v>
+      <c r="I33" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>85</v>
@@ -2718,7 +2727,7 @@
         <v>28</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
       <c r="O33" s="7">
         <v>3</v>
@@ -2727,7 +2736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16">
       <c r="A34" s="26" t="s">
         <v>78</v>
       </c>
@@ -2752,8 +2761,8 @@
       <c r="H34" s="7">
         <v>1</v>
       </c>
-      <c r="I34" s="7" t="s">
-        <v>26</v>
+      <c r="I34" s="19" t="s">
+        <v>109</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>90</v>
@@ -2765,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="M34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="N34" s="7">
-        <v>0</v>
+        <v>111</v>
+      </c>
+      <c r="N34" s="7" t="s">
+        <v>110</v>
       </c>
       <c r="O34" s="7">
         <v>3</v>
@@ -2799,19 +2808,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="29" customHeight="1">
       <c r="A1" s="14" t="s">
         <v>93</v>
       </c>
@@ -2834,7 +2845,7 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="39.5" customHeight="1">
       <c r="A2" s="16" t="s">
         <v>80</v>
       </c>
@@ -2853,7 +2864,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13">
       <c r="A3" s="22" t="s">
         <v>51</v>
       </c>
@@ -2867,7 +2878,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="18" t="s">
         <v>52</v>
       </c>
@@ -2881,7 +2892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="18" t="s">
         <v>54</v>
       </c>
@@ -2895,7 +2906,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="18" t="s">
         <v>55</v>
       </c>
@@ -2909,7 +2920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="18" t="s">
         <v>57</v>
       </c>
@@ -2923,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="18" t="s">
         <v>58</v>
       </c>
@@ -2937,46 +2948,60 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:13">
+      <c r="A9" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>6</v>
       </c>
-      <c r="C9" s="20">
-        <v>0</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" s="10" t="s">
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="13">
+        <v>7</v>
+      </c>
+      <c r="C10" s="20">
+        <v>1</v>
+      </c>
+      <c r="D10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B11" s="11">
-        <v>0</v>
-      </c>
-      <c r="C11" s="2" t="s">
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
-      <c r="B12" s="12">
-        <v>1</v>
-      </c>
-      <c r="C12" s="4" t="s">
+    <row r="13" spans="1:13">
+      <c r="A13" s="3"/>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="13">
+    <row r="14" spans="1:13">
+      <c r="A14" s="5"/>
+      <c r="B14" s="13">
         <v>2</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>97</v>
       </c>
     </row>
@@ -2992,20 +3017,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
         <v>82</v>
       </c>
@@ -3013,7 +3038,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -3021,7 +3046,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
@@ -3029,7 +3054,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -3037,7 +3062,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -3045,7 +3070,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
@@ -3053,7 +3078,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -3061,7 +3086,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
@@ -3069,7 +3094,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
@@ -3085,20 +3110,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="210" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="1" width="14" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" s="24" t="s">
         <v>99</v>
       </c>
@@ -3106,7 +3131,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
         <v>100</v>
       </c>
@@ -3114,7 +3139,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
         <v>102</v>
       </c>
@@ -3122,7 +3147,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
         <v>101</v>
       </c>
@@ -3130,7 +3155,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
         <v>104</v>
       </c>
@@ -3141,5 +3166,6 @@
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/控制器.xlsx
+++ b/doc/控制器.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="111">
   <si>
     <t>寄存器</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -364,10 +364,6 @@
   </si>
   <si>
     <t>0001</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>0(1100)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -461,12 +457,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="12">
@@ -603,7 +605,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -660,36 +662,27 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -717,6 +710,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1165,7 +1177,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B7" s="4">
         <v>1100</v>
@@ -1173,7 +1185,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B8" s="6">
         <v>1111</v>
@@ -1190,10 +1202,10 @@
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
@@ -1213,36 +1225,36 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:17">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D2" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="37"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="37"/>
-      <c r="P2" s="37"/>
-      <c r="Q2" s="37"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
     </row>
     <row r="3" spans="1:17" ht="28">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
-      <c r="C3" s="38"/>
+      <c r="A3" s="35"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1261,10 +1273,10 @@
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="40" t="s">
+      <c r="J3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="40"/>
+      <c r="K3" s="37"/>
       <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1283,13 +1295,13 @@
       <c r="Q3" s="1"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="32" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="27">
-        <v>1</v>
-      </c>
-      <c r="C4" s="28" t="s">
+      <c r="B4" s="26">
+        <v>1</v>
+      </c>
+      <c r="C4" s="27" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -1308,7 +1320,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>105</v>
@@ -1320,7 +1332,7 @@
         <v>28</v>
       </c>
       <c r="M4" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N4" s="7" t="s">
         <v>28</v>
@@ -1333,11 +1345,11 @@
       </c>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="36"/>
-      <c r="B5" s="29">
+      <c r="A5" s="33"/>
+      <c r="B5" s="28">
         <v>2</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="29" t="s">
         <v>29</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1356,7 +1368,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>85</v>
@@ -1368,7 +1380,7 @@
         <v>28</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N5" s="7" t="s">
         <v>30</v>
@@ -1381,11 +1393,11 @@
       </c>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="36"/>
-      <c r="B6" s="29">
+      <c r="A6" s="33"/>
+      <c r="B6" s="28">
         <v>3</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="29" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -1404,7 +1416,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>85</v>
@@ -1416,7 +1428,7 @@
         <v>6</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N6" s="7" t="s">
         <v>6</v>
@@ -1429,11 +1441,11 @@
       </c>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="36"/>
-      <c r="B7" s="29">
+      <c r="A7" s="33"/>
+      <c r="B7" s="28">
         <v>4</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="29" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -1452,7 +1464,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>85</v>
@@ -1477,11 +1489,11 @@
       </c>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="36"/>
-      <c r="B8" s="29">
+      <c r="A8" s="33"/>
+      <c r="B8" s="28">
         <v>23</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="29" t="s">
         <v>35</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -1500,7 +1512,7 @@
         <v>1</v>
       </c>
       <c r="I8" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J8" s="8" t="s">
         <v>86</v>
@@ -1525,11 +1537,11 @@
       </c>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="36"/>
-      <c r="B9" s="31">
+      <c r="A9" s="33"/>
+      <c r="B9" s="30">
         <v>29</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>37</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -1548,7 +1560,7 @@
         <v>1</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>86</v>
@@ -1573,13 +1585,13 @@
       </c>
     </row>
     <row r="10" spans="1:17">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="32" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="28">
         <v>5</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="29" t="s">
         <v>39</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -1598,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>87</v>
@@ -1623,11 +1635,11 @@
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="36"/>
-      <c r="B11" s="31">
+      <c r="A11" s="33"/>
+      <c r="B11" s="30">
         <v>20</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>41</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -1646,7 +1658,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J11" s="8" t="s">
         <v>88</v>
@@ -1671,13 +1683,13 @@
       </c>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="35" t="s">
+      <c r="A12" s="32" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="29">
+      <c r="B12" s="28">
         <v>21</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="29" t="s">
         <v>44</v>
       </c>
       <c r="D12" s="7" t="s">
@@ -1696,7 +1708,7 @@
         <v>1</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J12" s="8" t="s">
         <v>90</v>
@@ -1708,7 +1720,7 @@
         <v>30</v>
       </c>
       <c r="M12" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N12" s="7" t="s">
         <v>28</v>
@@ -1721,11 +1733,11 @@
       </c>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="36"/>
-      <c r="B13" s="29">
+      <c r="A13" s="33"/>
+      <c r="B13" s="28">
         <v>22</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C13" s="29" t="s">
         <v>46</v>
       </c>
       <c r="D13" s="7" t="s">
@@ -1744,7 +1756,7 @@
         <v>1</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J13" s="8" t="s">
         <v>92</v>
@@ -1756,7 +1768,7 @@
         <v>30</v>
       </c>
       <c r="M13" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N13" s="7" t="s">
         <v>28</v>
@@ -1769,11 +1781,11 @@
       </c>
     </row>
     <row r="14" spans="1:17">
-      <c r="A14" s="36"/>
-      <c r="B14" s="31">
+      <c r="A14" s="33"/>
+      <c r="B14" s="30">
         <v>30</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>48</v>
       </c>
       <c r="D14" s="7" t="s">
@@ -1792,7 +1804,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J14" s="8" t="s">
         <v>91</v>
@@ -1804,7 +1816,7 @@
         <v>30</v>
       </c>
       <c r="M14" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N14" s="7" t="s">
         <v>28</v>
@@ -1817,13 +1829,13 @@
       </c>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="35" t="s">
+      <c r="A15" s="32" t="s">
         <v>50</v>
       </c>
-      <c r="B15" s="29">
+      <c r="B15" s="28">
         <v>6</v>
       </c>
-      <c r="C15" s="30" t="s">
+      <c r="C15" s="29" t="s">
         <v>51</v>
       </c>
       <c r="D15" s="7" t="s">
@@ -1851,13 +1863,13 @@
         <v>26</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N15" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>26</v>
@@ -1867,11 +1879,11 @@
       </c>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="36"/>
-      <c r="B16" s="29">
+      <c r="A16" s="33"/>
+      <c r="B16" s="28">
         <v>7</v>
       </c>
-      <c r="C16" s="30" t="s">
+      <c r="C16" s="29" t="s">
         <v>52</v>
       </c>
       <c r="D16" s="7" t="s">
@@ -1902,10 +1914,10 @@
         <v>53</v>
       </c>
       <c r="M16" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N16" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>26</v>
@@ -1915,11 +1927,11 @@
       </c>
     </row>
     <row r="17" spans="1:16">
-      <c r="A17" s="36"/>
-      <c r="B17" s="29">
+      <c r="A17" s="33"/>
+      <c r="B17" s="28">
         <v>8</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="29" t="s">
         <v>54</v>
       </c>
       <c r="D17" s="7" t="s">
@@ -1950,10 +1962,10 @@
         <v>53</v>
       </c>
       <c r="M17" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N17" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>26</v>
@@ -1963,11 +1975,11 @@
       </c>
     </row>
     <row r="18" spans="1:16">
-      <c r="A18" s="36"/>
-      <c r="B18" s="29">
+      <c r="A18" s="33"/>
+      <c r="B18" s="28">
         <v>9</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="29" t="s">
         <v>55</v>
       </c>
       <c r="D18" s="7" t="s">
@@ -1998,10 +2010,10 @@
         <v>56</v>
       </c>
       <c r="M18" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N18" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>26</v>
@@ -2011,11 +2023,11 @@
       </c>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="36"/>
-      <c r="B19" s="29">
+      <c r="A19" s="33"/>
+      <c r="B19" s="28">
         <v>11</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="29" t="s">
         <v>57</v>
       </c>
       <c r="D19" s="7" t="s">
@@ -2046,10 +2058,10 @@
         <v>53</v>
       </c>
       <c r="M19" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N19" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>26</v>
@@ -2059,11 +2071,11 @@
       </c>
     </row>
     <row r="20" spans="1:16">
-      <c r="A20" s="36"/>
-      <c r="B20" s="29">
-        <v>26</v>
-      </c>
-      <c r="C20" s="30" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="28">
+        <v>26</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>58</v>
       </c>
       <c r="D20" s="7" t="s">
@@ -2094,7 +2106,7 @@
         <v>53</v>
       </c>
       <c r="M20" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N20" s="7" t="s">
         <v>59</v>
@@ -2107,11 +2119,11 @@
       </c>
     </row>
     <row r="21" spans="1:16">
-      <c r="A21" s="36"/>
-      <c r="B21" s="31">
+      <c r="A21" s="33"/>
+      <c r="B21" s="30">
         <v>27</v>
       </c>
-      <c r="C21" s="32" t="s">
+      <c r="C21" s="31" t="s">
         <v>60</v>
       </c>
       <c r="D21" s="7" t="s">
@@ -2142,10 +2154,10 @@
         <v>59</v>
       </c>
       <c r="M21" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N21" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>26</v>
@@ -2155,13 +2167,13 @@
       </c>
     </row>
     <row r="22" spans="1:16">
-      <c r="A22" s="35" t="s">
+      <c r="A22" s="32" t="s">
         <v>61</v>
       </c>
-      <c r="B22" s="29">
+      <c r="B22" s="28">
         <v>10</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="29" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="7">
@@ -2180,7 +2192,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J22" s="8" t="s">
         <v>86</v>
@@ -2198,18 +2210,18 @@
         <v>63</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:16">
-      <c r="A23" s="36"/>
-      <c r="B23" s="31">
+      <c r="A23" s="33"/>
+      <c r="B23" s="30">
         <v>28</v>
       </c>
-      <c r="C23" s="32" t="s">
+      <c r="C23" s="31" t="s">
         <v>64</v>
       </c>
       <c r="D23" s="7">
@@ -2228,7 +2240,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J23" s="8" t="s">
         <v>86</v>
@@ -2246,20 +2258,20 @@
         <v>63</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>110</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:16">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="32" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B24" s="28">
         <v>15</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="29" t="s">
         <v>66</v>
       </c>
       <c r="D24" s="7" t="s">
@@ -2278,7 +2290,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J24" s="8" t="s">
         <v>84</v>
@@ -2290,7 +2302,7 @@
         <v>67</v>
       </c>
       <c r="M24" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N24" s="7" t="s">
         <v>28</v>
@@ -2303,11 +2315,11 @@
       </c>
     </row>
     <row r="25" spans="1:16">
-      <c r="A25" s="36"/>
-      <c r="B25" s="29">
+      <c r="A25" s="33"/>
+      <c r="B25" s="28">
         <v>16</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="29" t="s">
         <v>68</v>
       </c>
       <c r="D25" s="7" t="s">
@@ -2326,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J25" s="8" t="s">
         <v>84</v>
@@ -2335,10 +2347,10 @@
         <v>26</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M25" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N25" s="7" t="s">
         <v>28</v>
@@ -2351,11 +2363,11 @@
       </c>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="36"/>
-      <c r="B26" s="29">
+      <c r="A26" s="33"/>
+      <c r="B26" s="28">
         <v>17</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="29" t="s">
         <v>69</v>
       </c>
       <c r="D26" s="7" t="s">
@@ -2374,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="I26" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J26" s="8" t="s">
         <v>84</v>
@@ -2386,7 +2398,7 @@
         <v>28</v>
       </c>
       <c r="M26" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N26" s="7" t="s">
         <v>67</v>
@@ -2399,11 +2411,11 @@
       </c>
     </row>
     <row r="27" spans="1:16">
-      <c r="A27" s="36"/>
-      <c r="B27" s="31">
+      <c r="A27" s="33"/>
+      <c r="B27" s="30">
         <v>18</v>
       </c>
-      <c r="C27" s="32" t="s">
+      <c r="C27" s="31" t="s">
         <v>70</v>
       </c>
       <c r="D27" s="7" t="s">
@@ -2422,7 +2434,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>84</v>
@@ -2434,7 +2446,7 @@
         <v>28</v>
       </c>
       <c r="M27" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N27" s="7" t="s">
         <v>32</v>
@@ -2447,13 +2459,13 @@
       </c>
     </row>
     <row r="28" spans="1:16">
-      <c r="A28" s="35" t="s">
+      <c r="A28" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="29">
+      <c r="B28" s="28">
         <v>12</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="29" t="s">
         <v>72</v>
       </c>
       <c r="D28" s="7" t="s">
@@ -2472,7 +2484,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J28" s="8" t="s">
         <v>84</v>
@@ -2481,10 +2493,10 @@
         <v>26</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M28" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N28" s="7" t="s">
         <v>28</v>
@@ -2497,11 +2509,11 @@
       </c>
     </row>
     <row r="29" spans="1:16">
-      <c r="A29" s="36"/>
-      <c r="B29" s="29">
+      <c r="A29" s="33"/>
+      <c r="B29" s="28">
         <v>13</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="29" t="s">
         <v>73</v>
       </c>
       <c r="D29" s="7" t="s">
@@ -2520,7 +2532,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>85</v>
@@ -2532,7 +2544,7 @@
         <v>28</v>
       </c>
       <c r="M29" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N29" s="7" t="s">
         <v>30</v>
@@ -2545,11 +2557,11 @@
       </c>
     </row>
     <row r="30" spans="1:16">
-      <c r="A30" s="36"/>
-      <c r="B30" s="29">
+      <c r="A30" s="33"/>
+      <c r="B30" s="28">
         <v>14</v>
       </c>
-      <c r="C30" s="30" t="s">
+      <c r="C30" s="29" t="s">
         <v>74</v>
       </c>
       <c r="D30" s="7" t="s">
@@ -2568,7 +2580,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>85</v>
@@ -2580,7 +2592,7 @@
         <v>32</v>
       </c>
       <c r="M30" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N30" s="7" t="s">
         <v>28</v>
@@ -2593,11 +2605,11 @@
       </c>
     </row>
     <row r="31" spans="1:16">
-      <c r="A31" s="36"/>
-      <c r="B31" s="29">
+      <c r="A31" s="33"/>
+      <c r="B31" s="28">
         <v>24</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="29" t="s">
         <v>75</v>
       </c>
       <c r="D31" s="7" t="s">
@@ -2616,7 +2628,7 @@
         <v>26</v>
       </c>
       <c r="I31" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J31" s="8" t="s">
         <v>85</v>
@@ -2631,7 +2643,7 @@
         <v>30</v>
       </c>
       <c r="N31" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O31" s="7">
         <v>3</v>
@@ -2641,11 +2653,11 @@
       </c>
     </row>
     <row r="32" spans="1:16">
-      <c r="A32" s="36"/>
-      <c r="B32" s="29">
+      <c r="A32" s="33"/>
+      <c r="B32" s="28">
         <v>31</v>
       </c>
-      <c r="C32" s="32" t="s">
+      <c r="C32" s="31" t="s">
         <v>76</v>
       </c>
       <c r="D32" s="7" t="s">
@@ -2664,7 +2676,7 @@
         <v>26</v>
       </c>
       <c r="I32" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>85</v>
@@ -2679,7 +2691,7 @@
         <v>59</v>
       </c>
       <c r="N32" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O32" s="7">
         <v>3</v>
@@ -2688,12 +2700,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:16">
-      <c r="A33" s="36"/>
-      <c r="B33" s="31">
+    <row r="33" spans="1:17">
+      <c r="A33" s="33"/>
+      <c r="B33" s="30">
         <v>25</v>
       </c>
-      <c r="C33" s="32" t="s">
+      <c r="C33" s="31" t="s">
         <v>77</v>
       </c>
       <c r="D33" s="7" t="s">
@@ -2712,7 +2724,7 @@
         <v>26</v>
       </c>
       <c r="I33" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J33" s="8" t="s">
         <v>85</v>
@@ -2727,7 +2739,7 @@
         <v>28</v>
       </c>
       <c r="N33" s="7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="O33" s="7">
         <v>3</v>
@@ -2736,55 +2748,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:16">
-      <c r="A34" s="26" t="s">
+    <row r="34" spans="1:17" s="48" customFormat="1">
+      <c r="A34" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="33">
+      <c r="B34" s="43">
         <v>19</v>
       </c>
-      <c r="C34" s="34" t="s">
+      <c r="C34" s="44" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="7">
-        <v>1</v>
-      </c>
-      <c r="F34" s="7">
-        <v>0</v>
-      </c>
-      <c r="G34" s="7">
-        <v>0</v>
-      </c>
-      <c r="H34" s="7">
-        <v>1</v>
-      </c>
-      <c r="I34" s="19" t="s">
+      <c r="D34" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="45">
+        <v>1</v>
+      </c>
+      <c r="F34" s="45">
+        <v>0</v>
+      </c>
+      <c r="G34" s="45">
+        <v>0</v>
+      </c>
+      <c r="H34" s="45">
+        <v>1</v>
+      </c>
+      <c r="I34" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J34" s="47" t="s">
+        <v>90</v>
+      </c>
+      <c r="K34" s="45" t="s">
+        <v>45</v>
+      </c>
+      <c r="L34" s="45" t="s">
+        <v>106</v>
+      </c>
+      <c r="M34" s="45" t="s">
+        <v>110</v>
+      </c>
+      <c r="N34" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="J34" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L34" s="7">
-        <v>0</v>
-      </c>
-      <c r="M34" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="N34" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="O34" s="7">
+      <c r="O34" s="45">
         <v>3</v>
       </c>
-      <c r="P34" s="7">
-        <v>1</v>
-      </c>
+      <c r="P34" s="45">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="45"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2829,10 +2842,10 @@
       <c r="B1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="41">
-        <v>0</v>
-      </c>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="38">
+        <v>0</v>
+      </c>
+      <c r="D1" s="40" t="s">
         <v>89</v>
       </c>
       <c r="E1" s="9"/>
@@ -2852,8 +2865,8 @@
       <c r="B2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="41"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -2964,7 +2977,7 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B10" s="13">
         <v>7</v>

--- a/doc/控制器.xlsx
+++ b/doc/控制器.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28908"/>
   <workbookPr filterPrivacy="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Yifan/Desktop/SAOestCPU/doc/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="14400" windowHeight="17540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="寄存器定义" sheetId="2" r:id="rId1"/>
@@ -18,18 +23,18 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="111">
   <si>
     <t>寄存器</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -390,8 +395,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -680,6 +685,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -710,29 +734,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 6" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="常规 6" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -767,7 +772,7 @@
         <xdr:cNvPr id="3" name="直接连接符 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FCE7D1A-8146-4B2C-8BF5-1F1E1E5E6C9F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1FCE7D1A-8146-4B2C-8BF5-1F1E1E5E6C9F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -817,7 +822,7 @@
         <xdr:cNvPr id="5" name="直接连接符 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2262EF2A-6BE7-4BAE-B7BB-F24298545F56}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{2262EF2A-6BE7-4BAE-B7BB-F24298545F56}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1114,20 +1119,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="31.58203125" customWidth="1"/>
+    <col min="1" max="1" width="31.5" customWidth="1"/>
     <col min="2" max="2" width="11.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -1135,7 +1140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -1143,7 +1148,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -1151,7 +1156,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -1159,7 +1164,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>6</v>
       </c>
@@ -1167,7 +1172,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>7</v>
       </c>
@@ -1175,7 +1180,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>106</v>
       </c>
@@ -1183,7 +1188,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="5" t="s">
         <v>107</v>
       </c>
@@ -1198,17 +1203,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:Q34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="J4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="P22" sqref="P22"/>
+      <selection pane="bottomRight" activeCell="B28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="8.83203125" style="7"/>
     <col min="4" max="4" width="10.1640625" style="7" customWidth="1"/>
@@ -1224,37 +1229,37 @@
     <col min="17" max="17" width="8.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:17">
-      <c r="A2" s="36" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
-      <c r="Q2" s="34"/>
-    </row>
-    <row r="3" spans="1:17" ht="28">
-      <c r="A3" s="35"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="41"/>
+      <c r="Q2" s="41"/>
+    </row>
+    <row r="3" spans="1:17" ht="28" x14ac:dyDescent="0.2">
+      <c r="A3" s="42"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
       <c r="D3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1273,10 +1278,10 @@
       <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="J3" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="37"/>
+      <c r="K3" s="44"/>
       <c r="L3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1294,8 +1299,8 @@
       </c>
       <c r="Q3" s="1"/>
     </row>
-    <row r="4" spans="1:17">
-      <c r="A4" s="32" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4" s="39" t="s">
         <v>24</v>
       </c>
       <c r="B4" s="26">
@@ -1344,8 +1349,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17">
-      <c r="A5" s="33"/>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A5" s="40"/>
       <c r="B5" s="28">
         <v>2</v>
       </c>
@@ -1392,8 +1397,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17">
-      <c r="A6" s="33"/>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A6" s="40"/>
       <c r="B6" s="28">
         <v>3</v>
       </c>
@@ -1440,8 +1445,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
-      <c r="A7" s="33"/>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A7" s="40"/>
       <c r="B7" s="28">
         <v>4</v>
       </c>
@@ -1488,8 +1493,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:17">
-      <c r="A8" s="33"/>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" s="40"/>
       <c r="B8" s="28">
         <v>23</v>
       </c>
@@ -1536,8 +1541,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:17">
-      <c r="A9" s="33"/>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" s="40"/>
       <c r="B9" s="30">
         <v>29</v>
       </c>
@@ -1584,8 +1589,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:17">
-      <c r="A10" s="32" t="s">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" s="39" t="s">
         <v>38</v>
       </c>
       <c r="B10" s="28">
@@ -1634,8 +1639,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="33"/>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" s="40"/>
       <c r="B11" s="30">
         <v>20</v>
       </c>
@@ -1682,8 +1687,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="32" t="s">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" s="39" t="s">
         <v>43</v>
       </c>
       <c r="B12" s="28">
@@ -1732,8 +1737,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17">
-      <c r="A13" s="33"/>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" s="40"/>
       <c r="B13" s="28">
         <v>22</v>
       </c>
@@ -1780,8 +1785,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="33"/>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" s="40"/>
       <c r="B14" s="30">
         <v>30</v>
       </c>
@@ -1828,8 +1833,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="32" t="s">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" s="39" t="s">
         <v>50</v>
       </c>
       <c r="B15" s="28">
@@ -1878,8 +1883,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:17">
-      <c r="A16" s="33"/>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" s="40"/>
       <c r="B16" s="28">
         <v>7</v>
       </c>
@@ -1926,8 +1931,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:16">
-      <c r="A17" s="33"/>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A17" s="40"/>
       <c r="B17" s="28">
         <v>8</v>
       </c>
@@ -1974,8 +1979,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:16">
-      <c r="A18" s="33"/>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A18" s="40"/>
       <c r="B18" s="28">
         <v>9</v>
       </c>
@@ -2022,8 +2027,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:16">
-      <c r="A19" s="33"/>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A19" s="40"/>
       <c r="B19" s="28">
         <v>11</v>
       </c>
@@ -2070,8 +2075,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:16">
-      <c r="A20" s="33"/>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A20" s="40"/>
       <c r="B20" s="28">
         <v>26</v>
       </c>
@@ -2118,8 +2123,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:16">
-      <c r="A21" s="33"/>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A21" s="40"/>
       <c r="B21" s="30">
         <v>27</v>
       </c>
@@ -2166,8 +2171,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:16">
-      <c r="A22" s="32" t="s">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A22" s="39" t="s">
         <v>61</v>
       </c>
       <c r="B22" s="28">
@@ -2209,15 +2214,15 @@
       <c r="N22" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O22" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16">
-      <c r="A23" s="33"/>
+      <c r="O22" s="7">
+        <v>0</v>
+      </c>
+      <c r="P22" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A23" s="40"/>
       <c r="B23" s="30">
         <v>28</v>
       </c>
@@ -2257,15 +2262,15 @@
       <c r="N23" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O23" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16">
-      <c r="A24" s="32" t="s">
+      <c r="O23" s="7">
+        <v>0</v>
+      </c>
+      <c r="P23" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A24" s="39" t="s">
         <v>65</v>
       </c>
       <c r="B24" s="28">
@@ -2314,8 +2319,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:16">
-      <c r="A25" s="33"/>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A25" s="40"/>
       <c r="B25" s="28">
         <v>16</v>
       </c>
@@ -2362,8 +2367,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:16">
-      <c r="A26" s="33"/>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A26" s="40"/>
       <c r="B26" s="28">
         <v>17</v>
       </c>
@@ -2410,8 +2415,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:16">
-      <c r="A27" s="33"/>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A27" s="40"/>
       <c r="B27" s="30">
         <v>18</v>
       </c>
@@ -2458,8 +2463,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:16">
-      <c r="A28" s="32" t="s">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A28" s="39" t="s">
         <v>71</v>
       </c>
       <c r="B28" s="28">
@@ -2508,8 +2513,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:16">
-      <c r="A29" s="33"/>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A29" s="40"/>
       <c r="B29" s="28">
         <v>13</v>
       </c>
@@ -2556,8 +2561,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:16">
-      <c r="A30" s="33"/>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A30" s="40"/>
       <c r="B30" s="28">
         <v>14</v>
       </c>
@@ -2604,8 +2609,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:16">
-      <c r="A31" s="33"/>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A31" s="40"/>
       <c r="B31" s="28">
         <v>24</v>
       </c>
@@ -2652,8 +2657,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:16">
-      <c r="A32" s="33"/>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A32" s="40"/>
       <c r="B32" s="28">
         <v>31</v>
       </c>
@@ -2700,8 +2705,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:17">
-      <c r="A33" s="33"/>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A33" s="40"/>
       <c r="B33" s="30">
         <v>25</v>
       </c>
@@ -2748,56 +2753,56 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:17" s="48" customFormat="1">
-      <c r="A34" s="42" t="s">
+    <row r="34" spans="1:17" s="38" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="32" t="s">
         <v>78</v>
       </c>
-      <c r="B34" s="43">
+      <c r="B34" s="33">
         <v>19</v>
       </c>
-      <c r="C34" s="44" t="s">
+      <c r="C34" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="D34" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="E34" s="45">
-        <v>1</v>
-      </c>
-      <c r="F34" s="45">
-        <v>0</v>
-      </c>
-      <c r="G34" s="45">
-        <v>0</v>
-      </c>
-      <c r="H34" s="45">
-        <v>1</v>
-      </c>
-      <c r="I34" s="46" t="s">
+      <c r="D34" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="E34" s="35">
+        <v>1</v>
+      </c>
+      <c r="F34" s="35">
+        <v>0</v>
+      </c>
+      <c r="G34" s="35">
+        <v>0</v>
+      </c>
+      <c r="H34" s="35">
+        <v>1</v>
+      </c>
+      <c r="I34" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="J34" s="47" t="s">
+      <c r="J34" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="K34" s="45" t="s">
+      <c r="K34" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="L34" s="45" t="s">
+      <c r="L34" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="M34" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="N34" s="45" t="s">
+      <c r="M34" s="35" t="s">
+        <v>110</v>
+      </c>
+      <c r="N34" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="O34" s="45">
+      <c r="O34" s="35">
         <v>3</v>
       </c>
-      <c r="P34" s="45">
-        <v>1</v>
-      </c>
-      <c r="Q34" s="45"/>
+      <c r="P34" s="35">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -2821,31 +2826,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15.33203125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="29" customHeight="1">
+    <row r="1" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
         <v>93</v>
       </c>
       <c r="B1" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="38">
-        <v>0</v>
-      </c>
-      <c r="D1" s="40" t="s">
+      <c r="C1" s="45">
+        <v>0</v>
+      </c>
+      <c r="D1" s="47" t="s">
         <v>89</v>
       </c>
       <c r="E1" s="9"/>
@@ -2858,15 +2863,15 @@
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
     </row>
-    <row r="2" spans="1:13" ht="39.5" customHeight="1">
+    <row r="2" spans="1:13" ht="39.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>80</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="41"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="48"/>
       <c r="E2" s="9"/>
       <c r="F2" s="9"/>
       <c r="G2" s="9"/>
@@ -2877,7 +2882,7 @@
       <c r="L2" s="9"/>
       <c r="M2" s="9"/>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="22" t="s">
         <v>51</v>
       </c>
@@ -2891,7 +2896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="18" t="s">
         <v>52</v>
       </c>
@@ -2905,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>54</v>
       </c>
@@ -2919,7 +2924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="18" t="s">
         <v>55</v>
       </c>
@@ -2933,7 +2938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>57</v>
       </c>
@@ -2947,7 +2952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
         <v>58</v>
       </c>
@@ -2961,7 +2966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>60</v>
       </c>
@@ -2975,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="19" t="s">
         <v>108</v>
       </c>
@@ -2989,7 +2994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
         <v>94</v>
       </c>
@@ -3000,7 +3005,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="12">
         <v>1</v>
@@ -3009,7 +3014,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="13">
         <v>2</v>
@@ -3030,20 +3035,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.1640625" style="7" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.33203125" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>82</v>
       </c>
@@ -3051,7 +3056,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>26</v>
       </c>
@@ -3059,7 +3064,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>27</v>
       </c>
@@ -3067,7 +3072,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>36</v>
       </c>
@@ -3075,7 +3080,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>40</v>
       </c>
@@ -3083,7 +3088,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>42</v>
       </c>
@@ -3091,7 +3096,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>45</v>
       </c>
@@ -3099,7 +3104,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>49</v>
       </c>
@@ -3107,7 +3112,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>47</v>
       </c>
@@ -3123,20 +3128,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="210" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14" style="7" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="8"/>
+    <col min="2" max="2" width="10.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="24" t="s">
         <v>99</v>
       </c>
@@ -3144,7 +3149,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>100</v>
       </c>
@@ -3152,7 +3157,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>102</v>
       </c>
@@ -3160,7 +3165,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>101</v>
       </c>
@@ -3168,7 +3173,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>104</v>
       </c>
